--- a/独学支援アプリ_設計図.xlsx
+++ b/独学支援アプリ_設計図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81805\Desktop\ポートフォリオ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F137120-31A7-4F41-9D17-1BD60C09A2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F53E95-77FC-483B-88DD-A3A927F9FDBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11040" tabRatio="961" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11040" tabRatio="961" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル定義書_登録情報" sheetId="13" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="213">
   <si>
     <t>共通情報</t>
   </si>
@@ -2017,15 +2017,20 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>過去の目標について、古い順にデータを取得する</t>
+    <t>achieve</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>過去の目標について、最新順にデータを取得する
+※ステップは昇順に表示する</t>
     <rPh sb="0" eb="2">
       <t>カコ</t>
     </rPh>
     <rPh sb="3" eb="5">
       <t>モクヒョウ</t>
     </rPh>
-    <rPh sb="10" eb="11">
-      <t>フル</t>
+    <rPh sb="10" eb="12">
+      <t>サイシン</t>
     </rPh>
     <rPh sb="12" eb="13">
       <t>ジュン</t>
@@ -2033,10 +2038,17 @@
     <rPh sb="18" eb="20">
       <t>シュトク</t>
     </rPh>
+    <rPh sb="29" eb="31">
+      <t>ショウジュン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>データ一覧の中でステップが完了したものは○、していないものは×をつける</t>
+    <t>データ一覧の中でステップが完了したものは○、
+していないものは×をつける</t>
     <rPh sb="3" eb="5">
       <t>イチラン</t>
     </rPh>
@@ -2527,7 +2539,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="221">
+  <cellXfs count="232">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2648,6 +2660,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2929,6 +2942,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2943,6 +2961,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2986,47 +3013,59 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -6914,7 +6953,7 @@
       <c r="J13" s="66"/>
       <c r="K13" s="66"/>
       <c r="L13" s="67"/>
-      <c r="M13" s="82" t="s">
+      <c r="M13" s="83" t="s">
         <v>159</v>
       </c>
       <c r="N13" s="66"/>
@@ -7978,7 +8017,7 @@
       <c r="V33" s="35"/>
       <c r="W33" s="35"/>
       <c r="X33" s="34"/>
-      <c r="Y33" s="217" t="s">
+      <c r="Y33" s="82" t="s">
         <v>202</v>
       </c>
       <c r="Z33" s="35"/>
@@ -9221,7 +9260,6 @@
     <row r="1000" ht="12.75"/>
   </sheetData>
   <mergeCells count="148">
-    <mergeCell ref="C19:D19"/>
     <mergeCell ref="E19:N19"/>
     <mergeCell ref="O19:X19"/>
     <mergeCell ref="Y19:AE19"/>
@@ -9284,6 +9322,7 @@
     <mergeCell ref="O18:X18"/>
     <mergeCell ref="Y18:AE18"/>
     <mergeCell ref="AJ18:AR18"/>
+    <mergeCell ref="C19:D19"/>
     <mergeCell ref="AJ23:AR23"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:N26"/>
@@ -9383,7 +9422,7 @@
   </sheetPr>
   <dimension ref="B1:AS998"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Y35" sqref="Y35:AI35"/>
     </sheetView>
   </sheetViews>
@@ -9963,7 +10002,7 @@
       <c r="J13" s="66"/>
       <c r="K13" s="66"/>
       <c r="L13" s="67"/>
-      <c r="M13" s="82" t="s">
+      <c r="M13" s="83" t="s">
         <v>159</v>
       </c>
       <c r="N13" s="66"/>
@@ -10296,15 +10335,15 @@
       <c r="AG19" s="35"/>
       <c r="AH19" s="35"/>
       <c r="AI19" s="34"/>
-      <c r="AJ19" s="218"/>
-      <c r="AK19" s="219"/>
-      <c r="AL19" s="219"/>
-      <c r="AM19" s="219"/>
-      <c r="AN19" s="219"/>
-      <c r="AO19" s="219"/>
-      <c r="AP19" s="219"/>
-      <c r="AQ19" s="219"/>
-      <c r="AR19" s="220"/>
+      <c r="AJ19" s="60"/>
+      <c r="AK19" s="35"/>
+      <c r="AL19" s="35"/>
+      <c r="AM19" s="35"/>
+      <c r="AN19" s="35"/>
+      <c r="AO19" s="35"/>
+      <c r="AP19" s="35"/>
+      <c r="AQ19" s="35"/>
+      <c r="AR19" s="34"/>
       <c r="AS19" s="8"/>
     </row>
     <row r="20" spans="2:45" ht="15" customHeight="1">
@@ -12288,14 +12327,14 @@
       <c r="AU2" s="2"/>
     </row>
     <row r="3" spans="3:52" ht="15" customHeight="1">
-      <c r="C3" s="129" t="s">
+      <c r="C3" s="130" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="66"/>
       <c r="E3" s="66"/>
       <c r="F3" s="66"/>
       <c r="G3" s="67"/>
-      <c r="H3" s="125" t="s">
+      <c r="H3" s="126" t="s">
         <v>1</v>
       </c>
       <c r="I3" s="35"/>
@@ -12321,7 +12360,7 @@
       <c r="AA3" s="35"/>
       <c r="AB3" s="35"/>
       <c r="AC3" s="34"/>
-      <c r="AD3" s="125" t="s">
+      <c r="AD3" s="126" t="s">
         <v>2</v>
       </c>
       <c r="AE3" s="35"/>
@@ -12353,7 +12392,7 @@
       <c r="E4" s="62"/>
       <c r="F4" s="62"/>
       <c r="G4" s="63"/>
-      <c r="H4" s="125" t="s">
+      <c r="H4" s="126" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="35"/>
@@ -12379,13 +12418,13 @@
       <c r="AA4" s="35"/>
       <c r="AB4" s="35"/>
       <c r="AC4" s="34"/>
-      <c r="AD4" s="125" t="s">
+      <c r="AD4" s="126" t="s">
         <v>4</v>
       </c>
       <c r="AE4" s="35"/>
       <c r="AF4" s="35"/>
       <c r="AG4" s="34"/>
-      <c r="AH4" s="132">
+      <c r="AH4" s="133">
         <v>44929</v>
       </c>
       <c r="AI4" s="35"/>
@@ -12411,7 +12450,7 @@
       <c r="E5" s="62"/>
       <c r="F5" s="62"/>
       <c r="G5" s="63"/>
-      <c r="H5" s="125" t="s">
+      <c r="H5" s="126" t="s">
         <v>5</v>
       </c>
       <c r="I5" s="35"/>
@@ -12437,13 +12476,13 @@
       <c r="AA5" s="35"/>
       <c r="AB5" s="35"/>
       <c r="AC5" s="34"/>
-      <c r="AD5" s="125" t="s">
+      <c r="AD5" s="126" t="s">
         <v>6</v>
       </c>
       <c r="AE5" s="35"/>
       <c r="AF5" s="35"/>
       <c r="AG5" s="34"/>
-      <c r="AH5" s="133">
+      <c r="AH5" s="134">
         <v>1</v>
       </c>
       <c r="AI5" s="35"/>
@@ -12469,7 +12508,7 @@
       <c r="E6" s="62"/>
       <c r="F6" s="62"/>
       <c r="G6" s="63"/>
-      <c r="H6" s="125" t="s">
+      <c r="H6" s="126" t="s">
         <v>7</v>
       </c>
       <c r="I6" s="35"/>
@@ -12495,7 +12534,7 @@
       <c r="AA6" s="35"/>
       <c r="AB6" s="35"/>
       <c r="AC6" s="34"/>
-      <c r="AD6" s="125" t="s">
+      <c r="AD6" s="126" t="s">
         <v>8</v>
       </c>
       <c r="AE6" s="35"/>
@@ -12525,7 +12564,7 @@
       <c r="E7" s="37"/>
       <c r="F7" s="37"/>
       <c r="G7" s="38"/>
-      <c r="H7" s="125" t="s">
+      <c r="H7" s="126" t="s">
         <v>9</v>
       </c>
       <c r="I7" s="35"/>
@@ -12551,13 +12590,13 @@
       <c r="AA7" s="35"/>
       <c r="AB7" s="35"/>
       <c r="AC7" s="34"/>
-      <c r="AD7" s="125" t="s">
+      <c r="AD7" s="126" t="s">
         <v>10</v>
       </c>
       <c r="AE7" s="35"/>
       <c r="AF7" s="35"/>
       <c r="AG7" s="34"/>
-      <c r="AH7" s="131"/>
+      <c r="AH7" s="132"/>
       <c r="AI7" s="35"/>
       <c r="AJ7" s="35"/>
       <c r="AK7" s="35"/>
@@ -12576,14 +12615,14 @@
       <c r="AX7" s="34"/>
     </row>
     <row r="8" spans="3:52" ht="15" customHeight="1">
-      <c r="C8" s="129" t="s">
+      <c r="C8" s="130" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="66"/>
       <c r="E8" s="66"/>
       <c r="F8" s="66"/>
       <c r="G8" s="67"/>
-      <c r="H8" s="125" t="s">
+      <c r="H8" s="126" t="s">
         <v>12</v>
       </c>
       <c r="I8" s="35"/>
@@ -12637,7 +12676,7 @@
       <c r="E9" s="62"/>
       <c r="F9" s="62"/>
       <c r="G9" s="63"/>
-      <c r="H9" s="125" t="s">
+      <c r="H9" s="126" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="35"/>
@@ -12691,14 +12730,14 @@
       <c r="E10" s="37"/>
       <c r="F10" s="37"/>
       <c r="G10" s="38"/>
-      <c r="H10" s="130" t="s">
+      <c r="H10" s="131" t="s">
         <v>14</v>
       </c>
       <c r="I10" s="35"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
       <c r="L10" s="34"/>
-      <c r="M10" s="124" t="s">
+      <c r="M10" s="125" t="s">
         <v>100</v>
       </c>
       <c r="N10" s="35"/>
@@ -12740,14 +12779,14 @@
       <c r="AX10" s="34"/>
     </row>
     <row r="11" spans="3:52" ht="15" customHeight="1">
-      <c r="C11" s="125" t="s">
+      <c r="C11" s="126" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="35"/>
       <c r="F11" s="35"/>
       <c r="G11" s="34"/>
-      <c r="H11" s="125" t="s">
+      <c r="H11" s="126" t="s">
         <v>16</v>
       </c>
       <c r="I11" s="35"/>
@@ -12806,45 +12845,45 @@
       <c r="AZ11" s="1"/>
     </row>
     <row r="12" spans="3:52" ht="15" customHeight="1">
-      <c r="C12" s="103" t="s">
+      <c r="C12" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="105"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="126" t="s">
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="127" t="s">
         <v>102</v>
       </c>
-      <c r="I12" s="117"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="117"/>
-      <c r="L12" s="118"/>
-      <c r="M12" s="127" t="s">
+      <c r="I12" s="118"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="118"/>
+      <c r="L12" s="119"/>
+      <c r="M12" s="128" t="s">
         <v>103</v>
       </c>
-      <c r="N12" s="117"/>
-      <c r="O12" s="117"/>
-      <c r="P12" s="117"/>
-      <c r="Q12" s="118"/>
-      <c r="R12" s="128" t="s">
+      <c r="N12" s="118"/>
+      <c r="O12" s="118"/>
+      <c r="P12" s="118"/>
+      <c r="Q12" s="119"/>
+      <c r="R12" s="129" t="s">
         <v>104</v>
       </c>
-      <c r="S12" s="117"/>
-      <c r="T12" s="117"/>
-      <c r="U12" s="117"/>
-      <c r="V12" s="117"/>
-      <c r="W12" s="117"/>
-      <c r="X12" s="117"/>
-      <c r="Y12" s="118"/>
-      <c r="Z12" s="84" t="s">
+      <c r="S12" s="118"/>
+      <c r="T12" s="118"/>
+      <c r="U12" s="118"/>
+      <c r="V12" s="118"/>
+      <c r="W12" s="118"/>
+      <c r="X12" s="118"/>
+      <c r="Y12" s="119"/>
+      <c r="Z12" s="85" t="s">
         <v>105</v>
       </c>
-      <c r="AA12" s="85"/>
-      <c r="AB12" s="85"/>
-      <c r="AC12" s="85"/>
-      <c r="AD12" s="86"/>
-      <c r="AE12" s="83" t="s">
+      <c r="AA12" s="86"/>
+      <c r="AB12" s="86"/>
+      <c r="AC12" s="86"/>
+      <c r="AD12" s="87"/>
+      <c r="AE12" s="84" t="s">
         <v>43</v>
       </c>
       <c r="AF12" s="66"/>
@@ -12861,41 +12900,41 @@
       <c r="AQ12" s="66"/>
       <c r="AR12" s="66"/>
       <c r="AS12" s="67"/>
-      <c r="AT12" s="93"/>
-      <c r="AU12" s="94"/>
-      <c r="AV12" s="94"/>
-      <c r="AW12" s="94"/>
-      <c r="AX12" s="95"/>
+      <c r="AT12" s="94"/>
+      <c r="AU12" s="95"/>
+      <c r="AV12" s="95"/>
+      <c r="AW12" s="95"/>
+      <c r="AX12" s="96"/>
     </row>
     <row r="13" spans="3:52" ht="15" customHeight="1">
-      <c r="C13" s="107"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="108"/>
-      <c r="G13" s="109"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="117"/>
-      <c r="L13" s="118"/>
-      <c r="M13" s="116"/>
-      <c r="N13" s="117"/>
-      <c r="O13" s="117"/>
-      <c r="P13" s="117"/>
-      <c r="Q13" s="118"/>
-      <c r="R13" s="116"/>
-      <c r="S13" s="117"/>
-      <c r="T13" s="117"/>
-      <c r="U13" s="117"/>
-      <c r="V13" s="117"/>
-      <c r="W13" s="117"/>
-      <c r="X13" s="117"/>
-      <c r="Y13" s="118"/>
-      <c r="Z13" s="87"/>
-      <c r="AA13" s="88"/>
-      <c r="AB13" s="88"/>
-      <c r="AC13" s="88"/>
-      <c r="AD13" s="89"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="118"/>
+      <c r="J13" s="118"/>
+      <c r="K13" s="118"/>
+      <c r="L13" s="119"/>
+      <c r="M13" s="117"/>
+      <c r="N13" s="118"/>
+      <c r="O13" s="118"/>
+      <c r="P13" s="118"/>
+      <c r="Q13" s="119"/>
+      <c r="R13" s="117"/>
+      <c r="S13" s="118"/>
+      <c r="T13" s="118"/>
+      <c r="U13" s="118"/>
+      <c r="V13" s="118"/>
+      <c r="W13" s="118"/>
+      <c r="X13" s="118"/>
+      <c r="Y13" s="119"/>
+      <c r="Z13" s="88"/>
+      <c r="AA13" s="89"/>
+      <c r="AB13" s="89"/>
+      <c r="AC13" s="89"/>
+      <c r="AD13" s="90"/>
       <c r="AE13" s="73"/>
       <c r="AF13" s="62"/>
       <c r="AG13" s="62"/>
@@ -12911,41 +12950,41 @@
       <c r="AQ13" s="62"/>
       <c r="AR13" s="62"/>
       <c r="AS13" s="63"/>
-      <c r="AT13" s="96"/>
-      <c r="AU13" s="97"/>
-      <c r="AV13" s="97"/>
-      <c r="AW13" s="97"/>
-      <c r="AX13" s="98"/>
+      <c r="AT13" s="97"/>
+      <c r="AU13" s="98"/>
+      <c r="AV13" s="98"/>
+      <c r="AW13" s="98"/>
+      <c r="AX13" s="99"/>
     </row>
     <row r="14" spans="3:52" ht="15" customHeight="1">
-      <c r="C14" s="107"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="108"/>
-      <c r="G14" s="109"/>
-      <c r="H14" s="116"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="117"/>
-      <c r="K14" s="117"/>
-      <c r="L14" s="118"/>
-      <c r="M14" s="116"/>
-      <c r="N14" s="117"/>
-      <c r="O14" s="117"/>
-      <c r="P14" s="117"/>
-      <c r="Q14" s="118"/>
-      <c r="R14" s="116"/>
-      <c r="S14" s="117"/>
-      <c r="T14" s="117"/>
-      <c r="U14" s="117"/>
-      <c r="V14" s="117"/>
-      <c r="W14" s="117"/>
-      <c r="X14" s="117"/>
-      <c r="Y14" s="118"/>
-      <c r="Z14" s="87"/>
-      <c r="AA14" s="88"/>
-      <c r="AB14" s="88"/>
-      <c r="AC14" s="88"/>
-      <c r="AD14" s="89"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="118"/>
+      <c r="J14" s="118"/>
+      <c r="K14" s="118"/>
+      <c r="L14" s="119"/>
+      <c r="M14" s="117"/>
+      <c r="N14" s="118"/>
+      <c r="O14" s="118"/>
+      <c r="P14" s="118"/>
+      <c r="Q14" s="119"/>
+      <c r="R14" s="117"/>
+      <c r="S14" s="118"/>
+      <c r="T14" s="118"/>
+      <c r="U14" s="118"/>
+      <c r="V14" s="118"/>
+      <c r="W14" s="118"/>
+      <c r="X14" s="118"/>
+      <c r="Y14" s="119"/>
+      <c r="Z14" s="88"/>
+      <c r="AA14" s="89"/>
+      <c r="AB14" s="89"/>
+      <c r="AC14" s="89"/>
+      <c r="AD14" s="90"/>
       <c r="AE14" s="73"/>
       <c r="AF14" s="62"/>
       <c r="AG14" s="62"/>
@@ -12961,41 +13000,41 @@
       <c r="AQ14" s="62"/>
       <c r="AR14" s="62"/>
       <c r="AS14" s="63"/>
-      <c r="AT14" s="96"/>
-      <c r="AU14" s="97"/>
-      <c r="AV14" s="97"/>
-      <c r="AW14" s="97"/>
-      <c r="AX14" s="98"/>
+      <c r="AT14" s="97"/>
+      <c r="AU14" s="98"/>
+      <c r="AV14" s="98"/>
+      <c r="AW14" s="98"/>
+      <c r="AX14" s="99"/>
     </row>
     <row r="15" spans="3:52" ht="15" customHeight="1">
-      <c r="C15" s="107"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="109"/>
-      <c r="H15" s="116"/>
-      <c r="I15" s="117"/>
-      <c r="J15" s="117"/>
-      <c r="K15" s="117"/>
-      <c r="L15" s="118"/>
-      <c r="M15" s="116"/>
-      <c r="N15" s="117"/>
-      <c r="O15" s="117"/>
-      <c r="P15" s="117"/>
-      <c r="Q15" s="118"/>
-      <c r="R15" s="116"/>
-      <c r="S15" s="117"/>
-      <c r="T15" s="117"/>
-      <c r="U15" s="117"/>
-      <c r="V15" s="117"/>
-      <c r="W15" s="117"/>
-      <c r="X15" s="117"/>
-      <c r="Y15" s="118"/>
-      <c r="Z15" s="90"/>
-      <c r="AA15" s="91"/>
-      <c r="AB15" s="91"/>
-      <c r="AC15" s="91"/>
-      <c r="AD15" s="92"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="118"/>
+      <c r="J15" s="118"/>
+      <c r="K15" s="118"/>
+      <c r="L15" s="119"/>
+      <c r="M15" s="117"/>
+      <c r="N15" s="118"/>
+      <c r="O15" s="118"/>
+      <c r="P15" s="118"/>
+      <c r="Q15" s="119"/>
+      <c r="R15" s="117"/>
+      <c r="S15" s="118"/>
+      <c r="T15" s="118"/>
+      <c r="U15" s="118"/>
+      <c r="V15" s="118"/>
+      <c r="W15" s="118"/>
+      <c r="X15" s="118"/>
+      <c r="Y15" s="119"/>
+      <c r="Z15" s="91"/>
+      <c r="AA15" s="92"/>
+      <c r="AB15" s="92"/>
+      <c r="AC15" s="92"/>
+      <c r="AD15" s="93"/>
       <c r="AE15" s="74"/>
       <c r="AF15" s="37"/>
       <c r="AG15" s="37"/>
@@ -13011,44 +13050,44 @@
       <c r="AQ15" s="37"/>
       <c r="AR15" s="37"/>
       <c r="AS15" s="38"/>
-      <c r="AT15" s="99"/>
-      <c r="AU15" s="100"/>
-      <c r="AV15" s="100"/>
-      <c r="AW15" s="100"/>
-      <c r="AX15" s="101"/>
+      <c r="AT15" s="100"/>
+      <c r="AU15" s="101"/>
+      <c r="AV15" s="101"/>
+      <c r="AW15" s="101"/>
+      <c r="AX15" s="102"/>
     </row>
     <row r="16" spans="3:52" ht="15" customHeight="1">
-      <c r="C16" s="107"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="117"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="117"/>
-      <c r="L16" s="118"/>
-      <c r="M16" s="116"/>
-      <c r="N16" s="117"/>
-      <c r="O16" s="117"/>
-      <c r="P16" s="117"/>
-      <c r="Q16" s="118"/>
-      <c r="R16" s="116"/>
-      <c r="S16" s="117"/>
-      <c r="T16" s="117"/>
-      <c r="U16" s="117"/>
-      <c r="V16" s="117"/>
-      <c r="W16" s="117"/>
-      <c r="X16" s="117"/>
-      <c r="Y16" s="118"/>
-      <c r="Z16" s="84" t="s">
+      <c r="C16" s="108"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="118"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="118"/>
+      <c r="L16" s="119"/>
+      <c r="M16" s="117"/>
+      <c r="N16" s="118"/>
+      <c r="O16" s="118"/>
+      <c r="P16" s="118"/>
+      <c r="Q16" s="119"/>
+      <c r="R16" s="117"/>
+      <c r="S16" s="118"/>
+      <c r="T16" s="118"/>
+      <c r="U16" s="118"/>
+      <c r="V16" s="118"/>
+      <c r="W16" s="118"/>
+      <c r="X16" s="118"/>
+      <c r="Y16" s="119"/>
+      <c r="Z16" s="85" t="s">
         <v>106</v>
       </c>
       <c r="AA16" s="66"/>
       <c r="AB16" s="66"/>
       <c r="AC16" s="66"/>
       <c r="AD16" s="67"/>
-      <c r="AE16" s="104" t="s">
+      <c r="AE16" s="105" t="s">
         <v>107</v>
       </c>
       <c r="AF16" s="66"/>
@@ -13065,7 +13104,7 @@
       <c r="AQ16" s="66"/>
       <c r="AR16" s="66"/>
       <c r="AS16" s="67"/>
-      <c r="AT16" s="102" t="s">
+      <c r="AT16" s="103" t="s">
         <v>108</v>
       </c>
       <c r="AU16" s="66"/>
@@ -13074,29 +13113,29 @@
       <c r="AX16" s="67"/>
     </row>
     <row r="17" spans="3:50" ht="15" customHeight="1">
-      <c r="C17" s="107"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="108"/>
-      <c r="G17" s="109"/>
-      <c r="H17" s="116"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="117"/>
-      <c r="L17" s="118"/>
-      <c r="M17" s="116"/>
-      <c r="N17" s="117"/>
-      <c r="O17" s="117"/>
-      <c r="P17" s="117"/>
-      <c r="Q17" s="118"/>
-      <c r="R17" s="116"/>
-      <c r="S17" s="117"/>
-      <c r="T17" s="117"/>
-      <c r="U17" s="117"/>
-      <c r="V17" s="117"/>
-      <c r="W17" s="117"/>
-      <c r="X17" s="117"/>
-      <c r="Y17" s="118"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="118"/>
+      <c r="J17" s="118"/>
+      <c r="K17" s="118"/>
+      <c r="L17" s="119"/>
+      <c r="M17" s="117"/>
+      <c r="N17" s="118"/>
+      <c r="O17" s="118"/>
+      <c r="P17" s="118"/>
+      <c r="Q17" s="119"/>
+      <c r="R17" s="117"/>
+      <c r="S17" s="118"/>
+      <c r="T17" s="118"/>
+      <c r="U17" s="118"/>
+      <c r="V17" s="118"/>
+      <c r="W17" s="118"/>
+      <c r="X17" s="118"/>
+      <c r="Y17" s="119"/>
       <c r="Z17" s="74"/>
       <c r="AA17" s="37"/>
       <c r="AB17" s="37"/>
@@ -13124,45 +13163,45 @@
       <c r="AX17" s="38"/>
     </row>
     <row r="18" spans="3:50" ht="15" customHeight="1">
-      <c r="C18" s="103" t="s">
+      <c r="C18" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="105"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="113" t="s">
+      <c r="D18" s="106"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="I18" s="114"/>
-      <c r="J18" s="114"/>
-      <c r="K18" s="114"/>
-      <c r="L18" s="115"/>
-      <c r="M18" s="122" t="s">
+      <c r="I18" s="115"/>
+      <c r="J18" s="115"/>
+      <c r="K18" s="115"/>
+      <c r="L18" s="116"/>
+      <c r="M18" s="123" t="s">
         <v>109</v>
       </c>
-      <c r="N18" s="114"/>
-      <c r="O18" s="114"/>
-      <c r="P18" s="114"/>
-      <c r="Q18" s="115"/>
-      <c r="R18" s="122" t="s">
+      <c r="N18" s="115"/>
+      <c r="O18" s="115"/>
+      <c r="P18" s="115"/>
+      <c r="Q18" s="116"/>
+      <c r="R18" s="123" t="s">
         <v>110</v>
       </c>
-      <c r="S18" s="114"/>
-      <c r="T18" s="114"/>
-      <c r="U18" s="114"/>
-      <c r="V18" s="114"/>
-      <c r="W18" s="114"/>
-      <c r="X18" s="114"/>
-      <c r="Y18" s="115"/>
-      <c r="Z18" s="84" t="s">
+      <c r="S18" s="115"/>
+      <c r="T18" s="115"/>
+      <c r="U18" s="115"/>
+      <c r="V18" s="115"/>
+      <c r="W18" s="115"/>
+      <c r="X18" s="115"/>
+      <c r="Y18" s="116"/>
+      <c r="Z18" s="85" t="s">
         <v>111</v>
       </c>
       <c r="AA18" s="66"/>
       <c r="AB18" s="66"/>
       <c r="AC18" s="66"/>
       <c r="AD18" s="67"/>
-      <c r="AE18" s="102" t="s">
+      <c r="AE18" s="103" t="s">
         <v>112</v>
       </c>
       <c r="AF18" s="66"/>
@@ -13179,36 +13218,36 @@
       <c r="AQ18" s="66"/>
       <c r="AR18" s="66"/>
       <c r="AS18" s="67"/>
-      <c r="AT18" s="83"/>
+      <c r="AT18" s="84"/>
       <c r="AU18" s="66"/>
       <c r="AV18" s="66"/>
       <c r="AW18" s="66"/>
       <c r="AX18" s="67"/>
     </row>
     <row r="19" spans="3:50" ht="15" customHeight="1">
-      <c r="C19" s="107"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="117"/>
-      <c r="J19" s="117"/>
-      <c r="K19" s="117"/>
-      <c r="L19" s="118"/>
-      <c r="M19" s="116"/>
-      <c r="N19" s="117"/>
-      <c r="O19" s="117"/>
-      <c r="P19" s="117"/>
-      <c r="Q19" s="118"/>
-      <c r="R19" s="116"/>
-      <c r="S19" s="117"/>
-      <c r="T19" s="117"/>
-      <c r="U19" s="117"/>
-      <c r="V19" s="117"/>
-      <c r="W19" s="117"/>
-      <c r="X19" s="117"/>
-      <c r="Y19" s="118"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="117"/>
+      <c r="I19" s="118"/>
+      <c r="J19" s="118"/>
+      <c r="K19" s="118"/>
+      <c r="L19" s="119"/>
+      <c r="M19" s="117"/>
+      <c r="N19" s="118"/>
+      <c r="O19" s="118"/>
+      <c r="P19" s="118"/>
+      <c r="Q19" s="119"/>
+      <c r="R19" s="117"/>
+      <c r="S19" s="118"/>
+      <c r="T19" s="118"/>
+      <c r="U19" s="118"/>
+      <c r="V19" s="118"/>
+      <c r="W19" s="118"/>
+      <c r="X19" s="118"/>
+      <c r="Y19" s="119"/>
       <c r="Z19" s="73"/>
       <c r="AA19" s="62"/>
       <c r="AB19" s="62"/>
@@ -13236,29 +13275,29 @@
       <c r="AX19" s="63"/>
     </row>
     <row r="20" spans="3:50" ht="15" customHeight="1">
-      <c r="C20" s="107"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="117"/>
-      <c r="K20" s="117"/>
-      <c r="L20" s="118"/>
-      <c r="M20" s="116"/>
-      <c r="N20" s="117"/>
-      <c r="O20" s="117"/>
-      <c r="P20" s="117"/>
-      <c r="Q20" s="118"/>
-      <c r="R20" s="116"/>
-      <c r="S20" s="117"/>
-      <c r="T20" s="117"/>
-      <c r="U20" s="117"/>
-      <c r="V20" s="117"/>
-      <c r="W20" s="117"/>
-      <c r="X20" s="117"/>
-      <c r="Y20" s="118"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="118"/>
+      <c r="K20" s="118"/>
+      <c r="L20" s="119"/>
+      <c r="M20" s="117"/>
+      <c r="N20" s="118"/>
+      <c r="O20" s="118"/>
+      <c r="P20" s="118"/>
+      <c r="Q20" s="119"/>
+      <c r="R20" s="117"/>
+      <c r="S20" s="118"/>
+      <c r="T20" s="118"/>
+      <c r="U20" s="118"/>
+      <c r="V20" s="118"/>
+      <c r="W20" s="118"/>
+      <c r="X20" s="118"/>
+      <c r="Y20" s="119"/>
       <c r="Z20" s="74"/>
       <c r="AA20" s="37"/>
       <c r="AB20" s="37"/>
@@ -13286,35 +13325,35 @@
       <c r="AX20" s="63"/>
     </row>
     <row r="21" spans="3:50" ht="15" customHeight="1">
-      <c r="C21" s="107"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="109"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="117"/>
-      <c r="K21" s="117"/>
-      <c r="L21" s="118"/>
-      <c r="M21" s="116"/>
-      <c r="N21" s="117"/>
-      <c r="O21" s="117"/>
-      <c r="P21" s="117"/>
-      <c r="Q21" s="118"/>
-      <c r="R21" s="116"/>
-      <c r="S21" s="117"/>
-      <c r="T21" s="117"/>
-      <c r="U21" s="117"/>
-      <c r="V21" s="117"/>
-      <c r="W21" s="117"/>
-      <c r="X21" s="117"/>
-      <c r="Y21" s="118"/>
-      <c r="Z21" s="103"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="118"/>
+      <c r="J21" s="118"/>
+      <c r="K21" s="118"/>
+      <c r="L21" s="119"/>
+      <c r="M21" s="117"/>
+      <c r="N21" s="118"/>
+      <c r="O21" s="118"/>
+      <c r="P21" s="118"/>
+      <c r="Q21" s="119"/>
+      <c r="R21" s="117"/>
+      <c r="S21" s="118"/>
+      <c r="T21" s="118"/>
+      <c r="U21" s="118"/>
+      <c r="V21" s="118"/>
+      <c r="W21" s="118"/>
+      <c r="X21" s="118"/>
+      <c r="Y21" s="119"/>
+      <c r="Z21" s="104"/>
       <c r="AA21" s="66"/>
       <c r="AB21" s="66"/>
       <c r="AC21" s="66"/>
       <c r="AD21" s="67"/>
-      <c r="AE21" s="83"/>
+      <c r="AE21" s="84"/>
       <c r="AF21" s="66"/>
       <c r="AG21" s="66"/>
       <c r="AH21" s="66"/>
@@ -13329,36 +13368,36 @@
       <c r="AQ21" s="66"/>
       <c r="AR21" s="66"/>
       <c r="AS21" s="67"/>
-      <c r="AT21" s="83"/>
+      <c r="AT21" s="84"/>
       <c r="AU21" s="66"/>
       <c r="AV21" s="66"/>
       <c r="AW21" s="66"/>
       <c r="AX21" s="67"/>
     </row>
     <row r="22" spans="3:50" ht="15" customHeight="1">
-      <c r="C22" s="107"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="109"/>
-      <c r="H22" s="116"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="117"/>
-      <c r="K22" s="117"/>
-      <c r="L22" s="118"/>
-      <c r="M22" s="116"/>
-      <c r="N22" s="117"/>
-      <c r="O22" s="117"/>
-      <c r="P22" s="117"/>
-      <c r="Q22" s="118"/>
-      <c r="R22" s="116"/>
-      <c r="S22" s="117"/>
-      <c r="T22" s="117"/>
-      <c r="U22" s="117"/>
-      <c r="V22" s="117"/>
-      <c r="W22" s="117"/>
-      <c r="X22" s="117"/>
-      <c r="Y22" s="118"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="118"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="119"/>
+      <c r="M22" s="117"/>
+      <c r="N22" s="118"/>
+      <c r="O22" s="118"/>
+      <c r="P22" s="118"/>
+      <c r="Q22" s="119"/>
+      <c r="R22" s="117"/>
+      <c r="S22" s="118"/>
+      <c r="T22" s="118"/>
+      <c r="U22" s="118"/>
+      <c r="V22" s="118"/>
+      <c r="W22" s="118"/>
+      <c r="X22" s="118"/>
+      <c r="Y22" s="119"/>
       <c r="Z22" s="73"/>
       <c r="AA22" s="62"/>
       <c r="AB22" s="62"/>
@@ -13386,29 +13425,29 @@
       <c r="AX22" s="63"/>
     </row>
     <row r="23" spans="3:50" ht="15" customHeight="1">
-      <c r="C23" s="107"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="108"/>
-      <c r="G23" s="109"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="117"/>
-      <c r="J23" s="117"/>
-      <c r="K23" s="117"/>
-      <c r="L23" s="118"/>
-      <c r="M23" s="116"/>
-      <c r="N23" s="117"/>
-      <c r="O23" s="117"/>
-      <c r="P23" s="117"/>
-      <c r="Q23" s="118"/>
-      <c r="R23" s="116"/>
-      <c r="S23" s="117"/>
-      <c r="T23" s="117"/>
-      <c r="U23" s="117"/>
-      <c r="V23" s="117"/>
-      <c r="W23" s="117"/>
-      <c r="X23" s="117"/>
-      <c r="Y23" s="118"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="118"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="118"/>
+      <c r="L23" s="119"/>
+      <c r="M23" s="117"/>
+      <c r="N23" s="118"/>
+      <c r="O23" s="118"/>
+      <c r="P23" s="118"/>
+      <c r="Q23" s="119"/>
+      <c r="R23" s="117"/>
+      <c r="S23" s="118"/>
+      <c r="T23" s="118"/>
+      <c r="U23" s="118"/>
+      <c r="V23" s="118"/>
+      <c r="W23" s="118"/>
+      <c r="X23" s="118"/>
+      <c r="Y23" s="119"/>
       <c r="Z23" s="74"/>
       <c r="AA23" s="37"/>
       <c r="AB23" s="37"/>
@@ -13436,35 +13475,35 @@
       <c r="AX23" s="63"/>
     </row>
     <row r="24" spans="3:50" ht="15" customHeight="1">
-      <c r="C24" s="107"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="108"/>
-      <c r="G24" s="109"/>
-      <c r="H24" s="116"/>
-      <c r="I24" s="117"/>
-      <c r="J24" s="117"/>
-      <c r="K24" s="117"/>
-      <c r="L24" s="118"/>
-      <c r="M24" s="116"/>
-      <c r="N24" s="117"/>
-      <c r="O24" s="117"/>
-      <c r="P24" s="117"/>
-      <c r="Q24" s="118"/>
-      <c r="R24" s="116"/>
-      <c r="S24" s="117"/>
-      <c r="T24" s="117"/>
-      <c r="U24" s="117"/>
-      <c r="V24" s="117"/>
-      <c r="W24" s="117"/>
-      <c r="X24" s="117"/>
-      <c r="Y24" s="118"/>
-      <c r="Z24" s="123"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="109"/>
+      <c r="E24" s="109"/>
+      <c r="F24" s="109"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="117"/>
+      <c r="I24" s="118"/>
+      <c r="J24" s="118"/>
+      <c r="K24" s="118"/>
+      <c r="L24" s="119"/>
+      <c r="M24" s="117"/>
+      <c r="N24" s="118"/>
+      <c r="O24" s="118"/>
+      <c r="P24" s="118"/>
+      <c r="Q24" s="119"/>
+      <c r="R24" s="117"/>
+      <c r="S24" s="118"/>
+      <c r="T24" s="118"/>
+      <c r="U24" s="118"/>
+      <c r="V24" s="118"/>
+      <c r="W24" s="118"/>
+      <c r="X24" s="118"/>
+      <c r="Y24" s="119"/>
+      <c r="Z24" s="124"/>
       <c r="AA24" s="66"/>
       <c r="AB24" s="66"/>
       <c r="AC24" s="66"/>
       <c r="AD24" s="67"/>
-      <c r="AE24" s="83"/>
+      <c r="AE24" s="84"/>
       <c r="AF24" s="66"/>
       <c r="AG24" s="66"/>
       <c r="AH24" s="66"/>
@@ -13479,36 +13518,36 @@
       <c r="AQ24" s="66"/>
       <c r="AR24" s="66"/>
       <c r="AS24" s="67"/>
-      <c r="AT24" s="83"/>
+      <c r="AT24" s="84"/>
       <c r="AU24" s="66"/>
       <c r="AV24" s="66"/>
       <c r="AW24" s="66"/>
       <c r="AX24" s="67"/>
     </row>
     <row r="25" spans="3:50" ht="15" customHeight="1">
-      <c r="C25" s="107"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="109"/>
-      <c r="H25" s="116"/>
-      <c r="I25" s="117"/>
-      <c r="J25" s="117"/>
-      <c r="K25" s="117"/>
-      <c r="L25" s="118"/>
-      <c r="M25" s="116"/>
-      <c r="N25" s="117"/>
-      <c r="O25" s="117"/>
-      <c r="P25" s="117"/>
-      <c r="Q25" s="118"/>
-      <c r="R25" s="116"/>
-      <c r="S25" s="117"/>
-      <c r="T25" s="117"/>
-      <c r="U25" s="117"/>
-      <c r="V25" s="117"/>
-      <c r="W25" s="117"/>
-      <c r="X25" s="117"/>
-      <c r="Y25" s="118"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="109"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="117"/>
+      <c r="I25" s="118"/>
+      <c r="J25" s="118"/>
+      <c r="K25" s="118"/>
+      <c r="L25" s="119"/>
+      <c r="M25" s="117"/>
+      <c r="N25" s="118"/>
+      <c r="O25" s="118"/>
+      <c r="P25" s="118"/>
+      <c r="Q25" s="119"/>
+      <c r="R25" s="117"/>
+      <c r="S25" s="118"/>
+      <c r="T25" s="118"/>
+      <c r="U25" s="118"/>
+      <c r="V25" s="118"/>
+      <c r="W25" s="118"/>
+      <c r="X25" s="118"/>
+      <c r="Y25" s="119"/>
       <c r="Z25" s="73"/>
       <c r="AA25" s="62"/>
       <c r="AB25" s="62"/>
@@ -13536,29 +13575,29 @@
       <c r="AX25" s="63"/>
     </row>
     <row r="26" spans="3:50" ht="15" customHeight="1">
-      <c r="C26" s="110"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="111"/>
-      <c r="G26" s="112"/>
-      <c r="H26" s="119"/>
-      <c r="I26" s="120"/>
-      <c r="J26" s="120"/>
-      <c r="K26" s="120"/>
-      <c r="L26" s="121"/>
-      <c r="M26" s="119"/>
-      <c r="N26" s="120"/>
-      <c r="O26" s="120"/>
-      <c r="P26" s="120"/>
-      <c r="Q26" s="121"/>
-      <c r="R26" s="119"/>
-      <c r="S26" s="120"/>
-      <c r="T26" s="120"/>
-      <c r="U26" s="120"/>
-      <c r="V26" s="120"/>
-      <c r="W26" s="120"/>
-      <c r="X26" s="120"/>
-      <c r="Y26" s="121"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="120"/>
+      <c r="I26" s="121"/>
+      <c r="J26" s="121"/>
+      <c r="K26" s="121"/>
+      <c r="L26" s="122"/>
+      <c r="M26" s="120"/>
+      <c r="N26" s="121"/>
+      <c r="O26" s="121"/>
+      <c r="P26" s="121"/>
+      <c r="Q26" s="122"/>
+      <c r="R26" s="120"/>
+      <c r="S26" s="121"/>
+      <c r="T26" s="121"/>
+      <c r="U26" s="121"/>
+      <c r="V26" s="121"/>
+      <c r="W26" s="121"/>
+      <c r="X26" s="121"/>
+      <c r="Y26" s="122"/>
       <c r="Z26" s="74"/>
       <c r="AA26" s="37"/>
       <c r="AB26" s="37"/>
@@ -14650,14 +14689,14 @@
       <c r="AU2" s="2"/>
     </row>
     <row r="3" spans="3:52" ht="15" customHeight="1">
-      <c r="C3" s="129" t="s">
+      <c r="C3" s="130" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="66"/>
       <c r="E3" s="66"/>
       <c r="F3" s="66"/>
       <c r="G3" s="67"/>
-      <c r="H3" s="125" t="s">
+      <c r="H3" s="126" t="s">
         <v>1</v>
       </c>
       <c r="I3" s="35"/>
@@ -14683,7 +14722,7 @@
       <c r="AA3" s="35"/>
       <c r="AB3" s="35"/>
       <c r="AC3" s="34"/>
-      <c r="AD3" s="125" t="s">
+      <c r="AD3" s="126" t="s">
         <v>2</v>
       </c>
       <c r="AE3" s="35"/>
@@ -14715,7 +14754,7 @@
       <c r="E4" s="62"/>
       <c r="F4" s="62"/>
       <c r="G4" s="63"/>
-      <c r="H4" s="125" t="s">
+      <c r="H4" s="126" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="35"/>
@@ -14741,13 +14780,13 @@
       <c r="AA4" s="35"/>
       <c r="AB4" s="35"/>
       <c r="AC4" s="34"/>
-      <c r="AD4" s="125" t="s">
+      <c r="AD4" s="126" t="s">
         <v>4</v>
       </c>
       <c r="AE4" s="35"/>
       <c r="AF4" s="35"/>
       <c r="AG4" s="34"/>
-      <c r="AH4" s="132">
+      <c r="AH4" s="133">
         <v>44929</v>
       </c>
       <c r="AI4" s="35"/>
@@ -14773,7 +14812,7 @@
       <c r="E5" s="62"/>
       <c r="F5" s="62"/>
       <c r="G5" s="63"/>
-      <c r="H5" s="125" t="s">
+      <c r="H5" s="126" t="s">
         <v>5</v>
       </c>
       <c r="I5" s="35"/>
@@ -14799,13 +14838,13 @@
       <c r="AA5" s="35"/>
       <c r="AB5" s="35"/>
       <c r="AC5" s="34"/>
-      <c r="AD5" s="125" t="s">
+      <c r="AD5" s="126" t="s">
         <v>6</v>
       </c>
       <c r="AE5" s="35"/>
       <c r="AF5" s="35"/>
       <c r="AG5" s="34"/>
-      <c r="AH5" s="133">
+      <c r="AH5" s="134">
         <v>1</v>
       </c>
       <c r="AI5" s="35"/>
@@ -14831,7 +14870,7 @@
       <c r="E6" s="62"/>
       <c r="F6" s="62"/>
       <c r="G6" s="63"/>
-      <c r="H6" s="125" t="s">
+      <c r="H6" s="126" t="s">
         <v>7</v>
       </c>
       <c r="I6" s="35"/>
@@ -14857,7 +14896,7 @@
       <c r="AA6" s="35"/>
       <c r="AB6" s="35"/>
       <c r="AC6" s="34"/>
-      <c r="AD6" s="125" t="s">
+      <c r="AD6" s="126" t="s">
         <v>8</v>
       </c>
       <c r="AE6" s="35"/>
@@ -14887,7 +14926,7 @@
       <c r="E7" s="37"/>
       <c r="F7" s="37"/>
       <c r="G7" s="38"/>
-      <c r="H7" s="125" t="s">
+      <c r="H7" s="126" t="s">
         <v>9</v>
       </c>
       <c r="I7" s="35"/>
@@ -14913,13 +14952,13 @@
       <c r="AA7" s="35"/>
       <c r="AB7" s="35"/>
       <c r="AC7" s="34"/>
-      <c r="AD7" s="125" t="s">
+      <c r="AD7" s="126" t="s">
         <v>10</v>
       </c>
       <c r="AE7" s="35"/>
       <c r="AF7" s="35"/>
       <c r="AG7" s="34"/>
-      <c r="AH7" s="131"/>
+      <c r="AH7" s="132"/>
       <c r="AI7" s="35"/>
       <c r="AJ7" s="35"/>
       <c r="AK7" s="35"/>
@@ -14938,14 +14977,14 @@
       <c r="AX7" s="34"/>
     </row>
     <row r="8" spans="3:52" ht="15" customHeight="1">
-      <c r="C8" s="129" t="s">
+      <c r="C8" s="130" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="66"/>
       <c r="E8" s="66"/>
       <c r="F8" s="66"/>
       <c r="G8" s="67"/>
-      <c r="H8" s="125" t="s">
+      <c r="H8" s="126" t="s">
         <v>12</v>
       </c>
       <c r="I8" s="35"/>
@@ -14999,7 +15038,7 @@
       <c r="E9" s="62"/>
       <c r="F9" s="62"/>
       <c r="G9" s="63"/>
-      <c r="H9" s="125" t="s">
+      <c r="H9" s="126" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="35"/>
@@ -15053,14 +15092,14 @@
       <c r="E10" s="37"/>
       <c r="F10" s="37"/>
       <c r="G10" s="38"/>
-      <c r="H10" s="130" t="s">
+      <c r="H10" s="131" t="s">
         <v>14</v>
       </c>
       <c r="I10" s="35"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
       <c r="L10" s="34"/>
-      <c r="M10" s="124" t="s">
+      <c r="M10" s="125" t="s">
         <v>114</v>
       </c>
       <c r="N10" s="35"/>
@@ -15102,14 +15141,14 @@
       <c r="AX10" s="34"/>
     </row>
     <row r="11" spans="3:52" ht="15" customHeight="1">
-      <c r="C11" s="125" t="s">
+      <c r="C11" s="126" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="35"/>
       <c r="F11" s="35"/>
       <c r="G11" s="34"/>
-      <c r="H11" s="125" t="s">
+      <c r="H11" s="126" t="s">
         <v>16</v>
       </c>
       <c r="I11" s="35"/>
@@ -15168,45 +15207,45 @@
       <c r="AZ11" s="1"/>
     </row>
     <row r="12" spans="3:52" ht="15" customHeight="1">
-      <c r="C12" s="103" t="s">
+      <c r="C12" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="D12" s="135"/>
-      <c r="E12" s="135"/>
-      <c r="F12" s="135"/>
-      <c r="G12" s="136"/>
-      <c r="H12" s="84" t="s">
+      <c r="D12" s="136"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="136"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="85" t="s">
         <v>119</v>
       </c>
-      <c r="I12" s="85"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="86"/>
-      <c r="M12" s="143" t="s">
+      <c r="I12" s="86"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="144" t="s">
         <v>120</v>
       </c>
-      <c r="N12" s="144"/>
-      <c r="O12" s="144"/>
-      <c r="P12" s="144"/>
-      <c r="Q12" s="145"/>
-      <c r="R12" s="153" t="s">
+      <c r="N12" s="145"/>
+      <c r="O12" s="145"/>
+      <c r="P12" s="145"/>
+      <c r="Q12" s="146"/>
+      <c r="R12" s="154" t="s">
         <v>121</v>
       </c>
-      <c r="S12" s="154"/>
-      <c r="T12" s="154"/>
-      <c r="U12" s="154"/>
-      <c r="V12" s="154"/>
-      <c r="W12" s="154"/>
-      <c r="X12" s="154"/>
-      <c r="Y12" s="155"/>
-      <c r="Z12" s="84" t="s">
+      <c r="S12" s="155"/>
+      <c r="T12" s="155"/>
+      <c r="U12" s="155"/>
+      <c r="V12" s="155"/>
+      <c r="W12" s="155"/>
+      <c r="X12" s="155"/>
+      <c r="Y12" s="156"/>
+      <c r="Z12" s="85" t="s">
         <v>105</v>
       </c>
-      <c r="AA12" s="85"/>
-      <c r="AB12" s="85"/>
-      <c r="AC12" s="85"/>
-      <c r="AD12" s="86"/>
-      <c r="AE12" s="83" t="s">
+      <c r="AA12" s="86"/>
+      <c r="AB12" s="86"/>
+      <c r="AC12" s="86"/>
+      <c r="AD12" s="87"/>
+      <c r="AE12" s="84" t="s">
         <v>43</v>
       </c>
       <c r="AF12" s="66"/>
@@ -15223,41 +15262,41 @@
       <c r="AQ12" s="66"/>
       <c r="AR12" s="66"/>
       <c r="AS12" s="67"/>
-      <c r="AT12" s="93"/>
-      <c r="AU12" s="94"/>
-      <c r="AV12" s="94"/>
-      <c r="AW12" s="94"/>
-      <c r="AX12" s="95"/>
+      <c r="AT12" s="94"/>
+      <c r="AU12" s="95"/>
+      <c r="AV12" s="95"/>
+      <c r="AW12" s="95"/>
+      <c r="AX12" s="96"/>
     </row>
     <row r="13" spans="3:52" ht="15" customHeight="1">
-      <c r="C13" s="137"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="138"/>
-      <c r="F13" s="138"/>
-      <c r="G13" s="139"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="146"/>
-      <c r="N13" s="147"/>
-      <c r="O13" s="147"/>
-      <c r="P13" s="147"/>
-      <c r="Q13" s="148"/>
-      <c r="R13" s="156"/>
-      <c r="S13" s="157"/>
-      <c r="T13" s="157"/>
-      <c r="U13" s="157"/>
-      <c r="V13" s="157"/>
-      <c r="W13" s="157"/>
-      <c r="X13" s="157"/>
-      <c r="Y13" s="158"/>
-      <c r="Z13" s="87"/>
-      <c r="AA13" s="88"/>
-      <c r="AB13" s="88"/>
-      <c r="AC13" s="88"/>
-      <c r="AD13" s="89"/>
+      <c r="C13" s="138"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="139"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="147"/>
+      <c r="N13" s="148"/>
+      <c r="O13" s="148"/>
+      <c r="P13" s="148"/>
+      <c r="Q13" s="149"/>
+      <c r="R13" s="157"/>
+      <c r="S13" s="158"/>
+      <c r="T13" s="158"/>
+      <c r="U13" s="158"/>
+      <c r="V13" s="158"/>
+      <c r="W13" s="158"/>
+      <c r="X13" s="158"/>
+      <c r="Y13" s="159"/>
+      <c r="Z13" s="88"/>
+      <c r="AA13" s="89"/>
+      <c r="AB13" s="89"/>
+      <c r="AC13" s="89"/>
+      <c r="AD13" s="90"/>
       <c r="AE13" s="73"/>
       <c r="AF13" s="62"/>
       <c r="AG13" s="62"/>
@@ -15273,41 +15312,41 @@
       <c r="AQ13" s="62"/>
       <c r="AR13" s="62"/>
       <c r="AS13" s="63"/>
-      <c r="AT13" s="96"/>
-      <c r="AU13" s="97"/>
-      <c r="AV13" s="97"/>
-      <c r="AW13" s="97"/>
-      <c r="AX13" s="98"/>
+      <c r="AT13" s="97"/>
+      <c r="AU13" s="98"/>
+      <c r="AV13" s="98"/>
+      <c r="AW13" s="98"/>
+      <c r="AX13" s="99"/>
     </row>
     <row r="14" spans="3:52" ht="15" customHeight="1">
-      <c r="C14" s="137"/>
-      <c r="D14" s="138"/>
-      <c r="E14" s="138"/>
-      <c r="F14" s="138"/>
-      <c r="G14" s="139"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="146"/>
-      <c r="N14" s="147"/>
-      <c r="O14" s="147"/>
-      <c r="P14" s="147"/>
-      <c r="Q14" s="148"/>
-      <c r="R14" s="156"/>
-      <c r="S14" s="157"/>
-      <c r="T14" s="157"/>
-      <c r="U14" s="157"/>
-      <c r="V14" s="157"/>
-      <c r="W14" s="157"/>
-      <c r="X14" s="157"/>
-      <c r="Y14" s="158"/>
-      <c r="Z14" s="87"/>
-      <c r="AA14" s="88"/>
-      <c r="AB14" s="88"/>
-      <c r="AC14" s="88"/>
-      <c r="AD14" s="89"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="140"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="147"/>
+      <c r="N14" s="148"/>
+      <c r="O14" s="148"/>
+      <c r="P14" s="148"/>
+      <c r="Q14" s="149"/>
+      <c r="R14" s="157"/>
+      <c r="S14" s="158"/>
+      <c r="T14" s="158"/>
+      <c r="U14" s="158"/>
+      <c r="V14" s="158"/>
+      <c r="W14" s="158"/>
+      <c r="X14" s="158"/>
+      <c r="Y14" s="159"/>
+      <c r="Z14" s="88"/>
+      <c r="AA14" s="89"/>
+      <c r="AB14" s="89"/>
+      <c r="AC14" s="89"/>
+      <c r="AD14" s="90"/>
       <c r="AE14" s="73"/>
       <c r="AF14" s="62"/>
       <c r="AG14" s="62"/>
@@ -15323,41 +15362,41 @@
       <c r="AQ14" s="62"/>
       <c r="AR14" s="62"/>
       <c r="AS14" s="63"/>
-      <c r="AT14" s="96"/>
-      <c r="AU14" s="97"/>
-      <c r="AV14" s="97"/>
-      <c r="AW14" s="97"/>
-      <c r="AX14" s="98"/>
+      <c r="AT14" s="97"/>
+      <c r="AU14" s="98"/>
+      <c r="AV14" s="98"/>
+      <c r="AW14" s="98"/>
+      <c r="AX14" s="99"/>
     </row>
     <row r="15" spans="3:52" ht="15" customHeight="1">
-      <c r="C15" s="137"/>
-      <c r="D15" s="138"/>
-      <c r="E15" s="138"/>
-      <c r="F15" s="138"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="146"/>
-      <c r="N15" s="147"/>
-      <c r="O15" s="147"/>
-      <c r="P15" s="147"/>
-      <c r="Q15" s="148"/>
-      <c r="R15" s="156"/>
-      <c r="S15" s="157"/>
-      <c r="T15" s="157"/>
-      <c r="U15" s="157"/>
-      <c r="V15" s="157"/>
-      <c r="W15" s="157"/>
-      <c r="X15" s="157"/>
-      <c r="Y15" s="158"/>
-      <c r="Z15" s="90"/>
-      <c r="AA15" s="91"/>
-      <c r="AB15" s="91"/>
-      <c r="AC15" s="91"/>
-      <c r="AD15" s="92"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="147"/>
+      <c r="N15" s="148"/>
+      <c r="O15" s="148"/>
+      <c r="P15" s="148"/>
+      <c r="Q15" s="149"/>
+      <c r="R15" s="157"/>
+      <c r="S15" s="158"/>
+      <c r="T15" s="158"/>
+      <c r="U15" s="158"/>
+      <c r="V15" s="158"/>
+      <c r="W15" s="158"/>
+      <c r="X15" s="158"/>
+      <c r="Y15" s="159"/>
+      <c r="Z15" s="91"/>
+      <c r="AA15" s="92"/>
+      <c r="AB15" s="92"/>
+      <c r="AC15" s="92"/>
+      <c r="AD15" s="93"/>
       <c r="AE15" s="74"/>
       <c r="AF15" s="37"/>
       <c r="AG15" s="37"/>
@@ -15373,44 +15412,44 @@
       <c r="AQ15" s="37"/>
       <c r="AR15" s="37"/>
       <c r="AS15" s="38"/>
-      <c r="AT15" s="99"/>
-      <c r="AU15" s="100"/>
-      <c r="AV15" s="100"/>
-      <c r="AW15" s="100"/>
-      <c r="AX15" s="101"/>
+      <c r="AT15" s="100"/>
+      <c r="AU15" s="101"/>
+      <c r="AV15" s="101"/>
+      <c r="AW15" s="101"/>
+      <c r="AX15" s="102"/>
     </row>
     <row r="16" spans="3:52" ht="15" customHeight="1">
-      <c r="C16" s="137"/>
-      <c r="D16" s="138"/>
-      <c r="E16" s="138"/>
-      <c r="F16" s="138"/>
-      <c r="G16" s="139"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="146"/>
-      <c r="N16" s="147"/>
-      <c r="O16" s="147"/>
-      <c r="P16" s="147"/>
-      <c r="Q16" s="148"/>
-      <c r="R16" s="156"/>
-      <c r="S16" s="157"/>
-      <c r="T16" s="157"/>
-      <c r="U16" s="157"/>
-      <c r="V16" s="157"/>
-      <c r="W16" s="157"/>
-      <c r="X16" s="157"/>
-      <c r="Y16" s="158"/>
-      <c r="Z16" s="84" t="s">
+      <c r="C16" s="138"/>
+      <c r="D16" s="139"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="139"/>
+      <c r="G16" s="140"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="147"/>
+      <c r="N16" s="148"/>
+      <c r="O16" s="148"/>
+      <c r="P16" s="148"/>
+      <c r="Q16" s="149"/>
+      <c r="R16" s="157"/>
+      <c r="S16" s="158"/>
+      <c r="T16" s="158"/>
+      <c r="U16" s="158"/>
+      <c r="V16" s="158"/>
+      <c r="W16" s="158"/>
+      <c r="X16" s="158"/>
+      <c r="Y16" s="159"/>
+      <c r="Z16" s="85" t="s">
         <v>106</v>
       </c>
       <c r="AA16" s="66"/>
       <c r="AB16" s="66"/>
       <c r="AC16" s="66"/>
       <c r="AD16" s="67"/>
-      <c r="AE16" s="104" t="s">
+      <c r="AE16" s="105" t="s">
         <v>122</v>
       </c>
       <c r="AF16" s="66"/>
@@ -15427,7 +15466,7 @@
       <c r="AQ16" s="66"/>
       <c r="AR16" s="66"/>
       <c r="AS16" s="67"/>
-      <c r="AT16" s="102" t="s">
+      <c r="AT16" s="103" t="s">
         <v>108</v>
       </c>
       <c r="AU16" s="66"/>
@@ -15436,29 +15475,29 @@
       <c r="AX16" s="67"/>
     </row>
     <row r="17" spans="3:50" ht="15" customHeight="1">
-      <c r="C17" s="137"/>
-      <c r="D17" s="138"/>
-      <c r="E17" s="138"/>
-      <c r="F17" s="138"/>
-      <c r="G17" s="139"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="146"/>
-      <c r="N17" s="147"/>
-      <c r="O17" s="147"/>
-      <c r="P17" s="147"/>
-      <c r="Q17" s="148"/>
-      <c r="R17" s="156"/>
-      <c r="S17" s="157"/>
-      <c r="T17" s="157"/>
-      <c r="U17" s="157"/>
-      <c r="V17" s="157"/>
-      <c r="W17" s="157"/>
-      <c r="X17" s="157"/>
-      <c r="Y17" s="158"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="139"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="147"/>
+      <c r="N17" s="148"/>
+      <c r="O17" s="148"/>
+      <c r="P17" s="148"/>
+      <c r="Q17" s="149"/>
+      <c r="R17" s="157"/>
+      <c r="S17" s="158"/>
+      <c r="T17" s="158"/>
+      <c r="U17" s="158"/>
+      <c r="V17" s="158"/>
+      <c r="W17" s="158"/>
+      <c r="X17" s="158"/>
+      <c r="Y17" s="159"/>
       <c r="Z17" s="74"/>
       <c r="AA17" s="37"/>
       <c r="AB17" s="37"/>
@@ -15486,37 +15525,37 @@
       <c r="AX17" s="38"/>
     </row>
     <row r="18" spans="3:50" ht="15" customHeight="1">
-      <c r="C18" s="137"/>
-      <c r="D18" s="138"/>
-      <c r="E18" s="138"/>
-      <c r="F18" s="138"/>
-      <c r="G18" s="139"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="88"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="146"/>
-      <c r="N18" s="147"/>
-      <c r="O18" s="147"/>
-      <c r="P18" s="147"/>
-      <c r="Q18" s="148"/>
-      <c r="R18" s="156"/>
-      <c r="S18" s="157"/>
-      <c r="T18" s="157"/>
-      <c r="U18" s="157"/>
-      <c r="V18" s="157"/>
-      <c r="W18" s="157"/>
-      <c r="X18" s="157"/>
-      <c r="Y18" s="158"/>
-      <c r="Z18" s="84" t="s">
+      <c r="C18" s="138"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="139"/>
+      <c r="G18" s="140"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="89"/>
+      <c r="L18" s="90"/>
+      <c r="M18" s="147"/>
+      <c r="N18" s="148"/>
+      <c r="O18" s="148"/>
+      <c r="P18" s="148"/>
+      <c r="Q18" s="149"/>
+      <c r="R18" s="157"/>
+      <c r="S18" s="158"/>
+      <c r="T18" s="158"/>
+      <c r="U18" s="158"/>
+      <c r="V18" s="158"/>
+      <c r="W18" s="158"/>
+      <c r="X18" s="158"/>
+      <c r="Y18" s="159"/>
+      <c r="Z18" s="85" t="s">
         <v>106</v>
       </c>
       <c r="AA18" s="66"/>
       <c r="AB18" s="66"/>
       <c r="AC18" s="66"/>
       <c r="AD18" s="67"/>
-      <c r="AE18" s="104" t="s">
+      <c r="AE18" s="105" t="s">
         <v>123</v>
       </c>
       <c r="AF18" s="66"/>
@@ -15533,7 +15572,7 @@
       <c r="AQ18" s="66"/>
       <c r="AR18" s="66"/>
       <c r="AS18" s="67"/>
-      <c r="AT18" s="134" t="s">
+      <c r="AT18" s="135" t="s">
         <v>124</v>
       </c>
       <c r="AU18" s="66"/>
@@ -15542,29 +15581,29 @@
       <c r="AX18" s="67"/>
     </row>
     <row r="19" spans="3:50" ht="15" customHeight="1">
-      <c r="C19" s="140"/>
-      <c r="D19" s="141"/>
-      <c r="E19" s="141"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="91"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="91"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="149"/>
-      <c r="N19" s="150"/>
-      <c r="O19" s="150"/>
-      <c r="P19" s="150"/>
-      <c r="Q19" s="151"/>
-      <c r="R19" s="159"/>
-      <c r="S19" s="160"/>
-      <c r="T19" s="160"/>
-      <c r="U19" s="160"/>
-      <c r="V19" s="160"/>
-      <c r="W19" s="160"/>
-      <c r="X19" s="160"/>
-      <c r="Y19" s="161"/>
+      <c r="C19" s="141"/>
+      <c r="D19" s="142"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="93"/>
+      <c r="M19" s="150"/>
+      <c r="N19" s="151"/>
+      <c r="O19" s="151"/>
+      <c r="P19" s="151"/>
+      <c r="Q19" s="152"/>
+      <c r="R19" s="160"/>
+      <c r="S19" s="161"/>
+      <c r="T19" s="161"/>
+      <c r="U19" s="161"/>
+      <c r="V19" s="161"/>
+      <c r="W19" s="161"/>
+      <c r="X19" s="161"/>
+      <c r="Y19" s="162"/>
       <c r="Z19" s="74"/>
       <c r="AA19" s="37"/>
       <c r="AB19" s="37"/>
@@ -15592,45 +15631,45 @@
       <c r="AX19" s="38"/>
     </row>
     <row r="20" spans="3:50" ht="15" customHeight="1">
-      <c r="C20" s="103" t="s">
+      <c r="C20" s="104" t="s">
         <v>126</v>
       </c>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="113" t="s">
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="I20" s="114"/>
-      <c r="J20" s="114"/>
-      <c r="K20" s="114"/>
-      <c r="L20" s="115"/>
-      <c r="M20" s="122" t="s">
+      <c r="I20" s="115"/>
+      <c r="J20" s="115"/>
+      <c r="K20" s="115"/>
+      <c r="L20" s="116"/>
+      <c r="M20" s="123" t="s">
         <v>127</v>
       </c>
-      <c r="N20" s="114"/>
-      <c r="O20" s="114"/>
-      <c r="P20" s="114"/>
-      <c r="Q20" s="115"/>
-      <c r="R20" s="122" t="s">
+      <c r="N20" s="115"/>
+      <c r="O20" s="115"/>
+      <c r="P20" s="115"/>
+      <c r="Q20" s="116"/>
+      <c r="R20" s="123" t="s">
         <v>128</v>
       </c>
-      <c r="S20" s="114"/>
-      <c r="T20" s="114"/>
-      <c r="U20" s="114"/>
-      <c r="V20" s="114"/>
-      <c r="W20" s="114"/>
-      <c r="X20" s="114"/>
-      <c r="Y20" s="115"/>
-      <c r="Z20" s="84" t="s">
+      <c r="S20" s="115"/>
+      <c r="T20" s="115"/>
+      <c r="U20" s="115"/>
+      <c r="V20" s="115"/>
+      <c r="W20" s="115"/>
+      <c r="X20" s="115"/>
+      <c r="Y20" s="116"/>
+      <c r="Z20" s="85" t="s">
         <v>111</v>
       </c>
       <c r="AA20" s="66"/>
       <c r="AB20" s="66"/>
       <c r="AC20" s="66"/>
       <c r="AD20" s="67"/>
-      <c r="AE20" s="134" t="s">
+      <c r="AE20" s="135" t="s">
         <v>184</v>
       </c>
       <c r="AF20" s="66"/>
@@ -15647,36 +15686,36 @@
       <c r="AQ20" s="66"/>
       <c r="AR20" s="66"/>
       <c r="AS20" s="67"/>
-      <c r="AT20" s="83"/>
+      <c r="AT20" s="84"/>
       <c r="AU20" s="66"/>
       <c r="AV20" s="66"/>
       <c r="AW20" s="66"/>
       <c r="AX20" s="67"/>
     </row>
     <row r="21" spans="3:50" ht="15" customHeight="1">
-      <c r="C21" s="107"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="109"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="117"/>
-      <c r="K21" s="117"/>
-      <c r="L21" s="118"/>
-      <c r="M21" s="116"/>
-      <c r="N21" s="117"/>
-      <c r="O21" s="117"/>
-      <c r="P21" s="117"/>
-      <c r="Q21" s="118"/>
-      <c r="R21" s="116"/>
-      <c r="S21" s="117"/>
-      <c r="T21" s="117"/>
-      <c r="U21" s="117"/>
-      <c r="V21" s="117"/>
-      <c r="W21" s="117"/>
-      <c r="X21" s="117"/>
-      <c r="Y21" s="118"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="118"/>
+      <c r="J21" s="118"/>
+      <c r="K21" s="118"/>
+      <c r="L21" s="119"/>
+      <c r="M21" s="117"/>
+      <c r="N21" s="118"/>
+      <c r="O21" s="118"/>
+      <c r="P21" s="118"/>
+      <c r="Q21" s="119"/>
+      <c r="R21" s="117"/>
+      <c r="S21" s="118"/>
+      <c r="T21" s="118"/>
+      <c r="U21" s="118"/>
+      <c r="V21" s="118"/>
+      <c r="W21" s="118"/>
+      <c r="X21" s="118"/>
+      <c r="Y21" s="119"/>
       <c r="Z21" s="73"/>
       <c r="AA21" s="62"/>
       <c r="AB21" s="62"/>
@@ -15704,33 +15743,33 @@
       <c r="AX21" s="63"/>
     </row>
     <row r="22" spans="3:50" ht="15" customHeight="1">
-      <c r="C22" s="107"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="109"/>
-      <c r="H22" s="116"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="117"/>
-      <c r="K22" s="117"/>
-      <c r="L22" s="118"/>
-      <c r="M22" s="116"/>
-      <c r="N22" s="117"/>
-      <c r="O22" s="117"/>
-      <c r="P22" s="117"/>
-      <c r="Q22" s="118"/>
-      <c r="R22" s="116"/>
-      <c r="S22" s="117"/>
-      <c r="T22" s="117"/>
-      <c r="U22" s="117"/>
-      <c r="V22" s="117"/>
-      <c r="W22" s="117"/>
-      <c r="X22" s="117"/>
-      <c r="Y22" s="118"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="118"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="119"/>
+      <c r="M22" s="117"/>
+      <c r="N22" s="118"/>
+      <c r="O22" s="118"/>
+      <c r="P22" s="118"/>
+      <c r="Q22" s="119"/>
+      <c r="R22" s="117"/>
+      <c r="S22" s="118"/>
+      <c r="T22" s="118"/>
+      <c r="U22" s="118"/>
+      <c r="V22" s="118"/>
+      <c r="W22" s="118"/>
+      <c r="X22" s="118"/>
+      <c r="Y22" s="119"/>
       <c r="Z22" s="73"/>
-      <c r="AA22" s="152"/>
-      <c r="AB22" s="152"/>
-      <c r="AC22" s="152"/>
+      <c r="AA22" s="153"/>
+      <c r="AB22" s="153"/>
+      <c r="AC22" s="153"/>
       <c r="AD22" s="63"/>
       <c r="AE22" s="73"/>
       <c r="AF22" s="62"/>
@@ -16831,7 +16870,7 @@
   </sheetPr>
   <dimension ref="C1:AZ990"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
       <selection activeCell="AE21" sqref="AE21:AS23"/>
     </sheetView>
   </sheetViews>
@@ -16859,14 +16898,14 @@
       <c r="AU2" s="2"/>
     </row>
     <row r="3" spans="3:52" ht="15" customHeight="1">
-      <c r="C3" s="129" t="s">
+      <c r="C3" s="130" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="66"/>
       <c r="E3" s="66"/>
       <c r="F3" s="66"/>
       <c r="G3" s="67"/>
-      <c r="H3" s="125" t="s">
+      <c r="H3" s="126" t="s">
         <v>1</v>
       </c>
       <c r="I3" s="35"/>
@@ -16890,7 +16929,7 @@
       <c r="AA3" s="35"/>
       <c r="AB3" s="35"/>
       <c r="AC3" s="34"/>
-      <c r="AD3" s="125" t="s">
+      <c r="AD3" s="126" t="s">
         <v>2</v>
       </c>
       <c r="AE3" s="35"/>
@@ -16922,7 +16961,7 @@
       <c r="E4" s="62"/>
       <c r="F4" s="62"/>
       <c r="G4" s="63"/>
-      <c r="H4" s="125" t="s">
+      <c r="H4" s="126" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="35"/>
@@ -16948,13 +16987,13 @@
       <c r="AA4" s="35"/>
       <c r="AB4" s="35"/>
       <c r="AC4" s="34"/>
-      <c r="AD4" s="125" t="s">
+      <c r="AD4" s="126" t="s">
         <v>4</v>
       </c>
       <c r="AE4" s="35"/>
       <c r="AF4" s="35"/>
       <c r="AG4" s="34"/>
-      <c r="AH4" s="132">
+      <c r="AH4" s="133">
         <v>44923</v>
       </c>
       <c r="AI4" s="35"/>
@@ -16980,7 +17019,7 @@
       <c r="E5" s="62"/>
       <c r="F5" s="62"/>
       <c r="G5" s="63"/>
-      <c r="H5" s="125" t="s">
+      <c r="H5" s="126" t="s">
         <v>5</v>
       </c>
       <c r="I5" s="35"/>
@@ -17006,13 +17045,13 @@
       <c r="AA5" s="35"/>
       <c r="AB5" s="35"/>
       <c r="AC5" s="34"/>
-      <c r="AD5" s="125" t="s">
+      <c r="AD5" s="126" t="s">
         <v>6</v>
       </c>
       <c r="AE5" s="35"/>
       <c r="AF5" s="35"/>
       <c r="AG5" s="34"/>
-      <c r="AH5" s="133">
+      <c r="AH5" s="134">
         <v>1</v>
       </c>
       <c r="AI5" s="35"/>
@@ -17038,7 +17077,7 @@
       <c r="E6" s="62"/>
       <c r="F6" s="62"/>
       <c r="G6" s="63"/>
-      <c r="H6" s="125" t="s">
+      <c r="H6" s="126" t="s">
         <v>7</v>
       </c>
       <c r="I6" s="35"/>
@@ -17064,7 +17103,7 @@
       <c r="AA6" s="35"/>
       <c r="AB6" s="35"/>
       <c r="AC6" s="34"/>
-      <c r="AD6" s="125" t="s">
+      <c r="AD6" s="126" t="s">
         <v>8</v>
       </c>
       <c r="AE6" s="35"/>
@@ -17094,7 +17133,7 @@
       <c r="E7" s="37"/>
       <c r="F7" s="37"/>
       <c r="G7" s="38"/>
-      <c r="H7" s="125" t="s">
+      <c r="H7" s="126" t="s">
         <v>9</v>
       </c>
       <c r="I7" s="35"/>
@@ -17120,13 +17159,13 @@
       <c r="AA7" s="35"/>
       <c r="AB7" s="35"/>
       <c r="AC7" s="34"/>
-      <c r="AD7" s="125" t="s">
+      <c r="AD7" s="126" t="s">
         <v>10</v>
       </c>
       <c r="AE7" s="35"/>
       <c r="AF7" s="35"/>
       <c r="AG7" s="34"/>
-      <c r="AH7" s="131"/>
+      <c r="AH7" s="132"/>
       <c r="AI7" s="35"/>
       <c r="AJ7" s="35"/>
       <c r="AK7" s="35"/>
@@ -17145,14 +17184,14 @@
       <c r="AX7" s="34"/>
     </row>
     <row r="8" spans="3:52" ht="15" customHeight="1">
-      <c r="C8" s="129" t="s">
+      <c r="C8" s="130" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="66"/>
       <c r="E8" s="66"/>
       <c r="F8" s="66"/>
       <c r="G8" s="67"/>
-      <c r="H8" s="125" t="s">
+      <c r="H8" s="126" t="s">
         <v>12</v>
       </c>
       <c r="I8" s="35"/>
@@ -17206,7 +17245,7 @@
       <c r="E9" s="62"/>
       <c r="F9" s="62"/>
       <c r="G9" s="63"/>
-      <c r="H9" s="125" t="s">
+      <c r="H9" s="126" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="35"/>
@@ -17260,14 +17299,14 @@
       <c r="E10" s="37"/>
       <c r="F10" s="37"/>
       <c r="G10" s="38"/>
-      <c r="H10" s="130" t="s">
+      <c r="H10" s="131" t="s">
         <v>14</v>
       </c>
       <c r="I10" s="35"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
       <c r="L10" s="34"/>
-      <c r="M10" s="183" t="s">
+      <c r="M10" s="189" t="s">
         <v>84</v>
       </c>
       <c r="N10" s="35"/>
@@ -17309,14 +17348,14 @@
       <c r="AX10" s="34"/>
     </row>
     <row r="11" spans="3:52" ht="15" customHeight="1">
-      <c r="C11" s="125" t="s">
+      <c r="C11" s="126" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="35"/>
       <c r="F11" s="35"/>
       <c r="G11" s="34"/>
-      <c r="H11" s="125" t="s">
+      <c r="H11" s="126" t="s">
         <v>16</v>
       </c>
       <c r="I11" s="35"/>
@@ -17375,28 +17414,28 @@
       <c r="AZ11" s="1"/>
     </row>
     <row r="12" spans="3:52" ht="15" customHeight="1">
-      <c r="C12" s="103" t="s">
+      <c r="C12" s="104" t="s">
         <v>130</v>
       </c>
-      <c r="D12" s="105"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="181" t="s">
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="187" t="s">
         <v>135</v>
       </c>
       <c r="I12" s="62"/>
       <c r="J12" s="62"/>
       <c r="K12" s="62"/>
       <c r="L12" s="63"/>
-      <c r="M12" s="182" t="s">
+      <c r="M12" s="188" t="s">
         <v>88</v>
       </c>
       <c r="N12" s="62"/>
       <c r="O12" s="62"/>
       <c r="P12" s="62"/>
       <c r="Q12" s="63"/>
-      <c r="R12" s="178" t="s">
+      <c r="R12" s="179" t="s">
         <v>85</v>
       </c>
       <c r="S12" s="62"/>
@@ -17406,44 +17445,44 @@
       <c r="W12" s="62"/>
       <c r="X12" s="62"/>
       <c r="Y12" s="63"/>
-      <c r="Z12" s="200" t="s">
+      <c r="Z12" s="209" t="s">
         <v>132</v>
       </c>
-      <c r="AA12" s="201"/>
-      <c r="AB12" s="201"/>
-      <c r="AC12" s="201"/>
-      <c r="AD12" s="202"/>
-      <c r="AE12" s="203" t="s">
+      <c r="AA12" s="210"/>
+      <c r="AB12" s="210"/>
+      <c r="AC12" s="210"/>
+      <c r="AD12" s="211"/>
+      <c r="AE12" s="212" t="s">
         <v>146</v>
       </c>
-      <c r="AF12" s="204"/>
-      <c r="AG12" s="204"/>
-      <c r="AH12" s="204"/>
-      <c r="AI12" s="204"/>
-      <c r="AJ12" s="204"/>
-      <c r="AK12" s="204"/>
-      <c r="AL12" s="204"/>
-      <c r="AM12" s="204"/>
-      <c r="AN12" s="204"/>
-      <c r="AO12" s="204"/>
-      <c r="AP12" s="204"/>
-      <c r="AQ12" s="204"/>
-      <c r="AR12" s="204"/>
-      <c r="AS12" s="205"/>
-      <c r="AT12" s="171" t="s">
+      <c r="AF12" s="213"/>
+      <c r="AG12" s="213"/>
+      <c r="AH12" s="213"/>
+      <c r="AI12" s="213"/>
+      <c r="AJ12" s="213"/>
+      <c r="AK12" s="213"/>
+      <c r="AL12" s="213"/>
+      <c r="AM12" s="213"/>
+      <c r="AN12" s="213"/>
+      <c r="AO12" s="213"/>
+      <c r="AP12" s="213"/>
+      <c r="AQ12" s="213"/>
+      <c r="AR12" s="213"/>
+      <c r="AS12" s="214"/>
+      <c r="AT12" s="221" t="s">
         <v>133</v>
       </c>
-      <c r="AU12" s="172"/>
-      <c r="AV12" s="172"/>
-      <c r="AW12" s="172"/>
-      <c r="AX12" s="173"/>
+      <c r="AU12" s="222"/>
+      <c r="AV12" s="222"/>
+      <c r="AW12" s="222"/>
+      <c r="AX12" s="223"/>
     </row>
     <row r="13" spans="3:52" ht="15" customHeight="1">
-      <c r="C13" s="107"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="108"/>
-      <c r="G13" s="109"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="110"/>
       <c r="H13" s="73"/>
       <c r="I13" s="62"/>
       <c r="J13" s="62"/>
@@ -17462,38 +17501,38 @@
       <c r="W13" s="62"/>
       <c r="X13" s="62"/>
       <c r="Y13" s="63"/>
-      <c r="Z13" s="206"/>
-      <c r="AA13" s="207"/>
-      <c r="AB13" s="207"/>
-      <c r="AC13" s="207"/>
-      <c r="AD13" s="208"/>
-      <c r="AE13" s="209"/>
-      <c r="AF13" s="210"/>
-      <c r="AG13" s="210"/>
-      <c r="AH13" s="210"/>
-      <c r="AI13" s="210"/>
-      <c r="AJ13" s="210"/>
-      <c r="AK13" s="210"/>
-      <c r="AL13" s="210"/>
-      <c r="AM13" s="210"/>
-      <c r="AN13" s="210"/>
-      <c r="AO13" s="210"/>
-      <c r="AP13" s="210"/>
-      <c r="AQ13" s="210"/>
-      <c r="AR13" s="210"/>
-      <c r="AS13" s="211"/>
-      <c r="AT13" s="174"/>
-      <c r="AU13" s="175"/>
-      <c r="AV13" s="175"/>
-      <c r="AW13" s="175"/>
-      <c r="AX13" s="176"/>
+      <c r="Z13" s="215"/>
+      <c r="AA13" s="216"/>
+      <c r="AB13" s="216"/>
+      <c r="AC13" s="216"/>
+      <c r="AD13" s="217"/>
+      <c r="AE13" s="218"/>
+      <c r="AF13" s="219"/>
+      <c r="AG13" s="219"/>
+      <c r="AH13" s="219"/>
+      <c r="AI13" s="219"/>
+      <c r="AJ13" s="219"/>
+      <c r="AK13" s="219"/>
+      <c r="AL13" s="219"/>
+      <c r="AM13" s="219"/>
+      <c r="AN13" s="219"/>
+      <c r="AO13" s="219"/>
+      <c r="AP13" s="219"/>
+      <c r="AQ13" s="219"/>
+      <c r="AR13" s="219"/>
+      <c r="AS13" s="220"/>
+      <c r="AT13" s="224"/>
+      <c r="AU13" s="225"/>
+      <c r="AV13" s="225"/>
+      <c r="AW13" s="225"/>
+      <c r="AX13" s="226"/>
     </row>
     <row r="14" spans="3:52" ht="15" customHeight="1">
-      <c r="C14" s="107"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="108"/>
-      <c r="G14" s="109"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="110"/>
       <c r="H14" s="73"/>
       <c r="I14" s="62"/>
       <c r="J14" s="62"/>
@@ -17512,44 +17551,44 @@
       <c r="W14" s="62"/>
       <c r="X14" s="62"/>
       <c r="Y14" s="63"/>
-      <c r="Z14" s="168" t="s">
+      <c r="Z14" s="169" t="s">
         <v>134</v>
       </c>
       <c r="AA14" s="66"/>
       <c r="AB14" s="66"/>
       <c r="AC14" s="66"/>
       <c r="AD14" s="67"/>
-      <c r="AE14" s="162" t="s">
+      <c r="AE14" s="163" t="s">
         <v>145</v>
       </c>
-      <c r="AF14" s="163"/>
-      <c r="AG14" s="163"/>
-      <c r="AH14" s="163"/>
-      <c r="AI14" s="163"/>
-      <c r="AJ14" s="163"/>
-      <c r="AK14" s="163"/>
-      <c r="AL14" s="163"/>
-      <c r="AM14" s="163"/>
-      <c r="AN14" s="163"/>
-      <c r="AO14" s="163"/>
-      <c r="AP14" s="163"/>
-      <c r="AQ14" s="163"/>
-      <c r="AR14" s="163"/>
-      <c r="AS14" s="164"/>
-      <c r="AT14" s="171" t="s">
+      <c r="AF14" s="164"/>
+      <c r="AG14" s="164"/>
+      <c r="AH14" s="164"/>
+      <c r="AI14" s="164"/>
+      <c r="AJ14" s="164"/>
+      <c r="AK14" s="164"/>
+      <c r="AL14" s="164"/>
+      <c r="AM14" s="164"/>
+      <c r="AN14" s="164"/>
+      <c r="AO14" s="164"/>
+      <c r="AP14" s="164"/>
+      <c r="AQ14" s="164"/>
+      <c r="AR14" s="164"/>
+      <c r="AS14" s="165"/>
+      <c r="AT14" s="172" t="s">
         <v>86</v>
       </c>
-      <c r="AU14" s="172"/>
-      <c r="AV14" s="172"/>
-      <c r="AW14" s="172"/>
-      <c r="AX14" s="173"/>
+      <c r="AU14" s="173"/>
+      <c r="AV14" s="173"/>
+      <c r="AW14" s="173"/>
+      <c r="AX14" s="174"/>
     </row>
     <row r="15" spans="3:52" ht="15" customHeight="1">
-      <c r="C15" s="107"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="109"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="110"/>
       <c r="H15" s="73"/>
       <c r="I15" s="62"/>
       <c r="J15" s="62"/>
@@ -17573,33 +17612,33 @@
       <c r="AB15" s="37"/>
       <c r="AC15" s="37"/>
       <c r="AD15" s="38"/>
-      <c r="AE15" s="165"/>
-      <c r="AF15" s="166"/>
-      <c r="AG15" s="166"/>
-      <c r="AH15" s="166"/>
-      <c r="AI15" s="166"/>
-      <c r="AJ15" s="166"/>
-      <c r="AK15" s="166"/>
-      <c r="AL15" s="166"/>
-      <c r="AM15" s="166"/>
-      <c r="AN15" s="166"/>
-      <c r="AO15" s="166"/>
-      <c r="AP15" s="166"/>
-      <c r="AQ15" s="166"/>
-      <c r="AR15" s="166"/>
-      <c r="AS15" s="167"/>
-      <c r="AT15" s="174"/>
-      <c r="AU15" s="175"/>
-      <c r="AV15" s="175"/>
-      <c r="AW15" s="175"/>
-      <c r="AX15" s="176"/>
+      <c r="AE15" s="166"/>
+      <c r="AF15" s="167"/>
+      <c r="AG15" s="167"/>
+      <c r="AH15" s="167"/>
+      <c r="AI15" s="167"/>
+      <c r="AJ15" s="167"/>
+      <c r="AK15" s="167"/>
+      <c r="AL15" s="167"/>
+      <c r="AM15" s="167"/>
+      <c r="AN15" s="167"/>
+      <c r="AO15" s="167"/>
+      <c r="AP15" s="167"/>
+      <c r="AQ15" s="167"/>
+      <c r="AR15" s="167"/>
+      <c r="AS15" s="168"/>
+      <c r="AT15" s="175"/>
+      <c r="AU15" s="176"/>
+      <c r="AV15" s="176"/>
+      <c r="AW15" s="176"/>
+      <c r="AX15" s="177"/>
     </row>
     <row r="16" spans="3:52" ht="15" customHeight="1">
-      <c r="C16" s="107"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="109"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="110"/>
       <c r="H16" s="73"/>
       <c r="I16" s="62"/>
       <c r="J16" s="62"/>
@@ -17618,14 +17657,14 @@
       <c r="W16" s="62"/>
       <c r="X16" s="62"/>
       <c r="Y16" s="63"/>
-      <c r="Z16" s="168" t="s">
+      <c r="Z16" s="169" t="s">
         <v>148</v>
       </c>
       <c r="AA16" s="66"/>
       <c r="AB16" s="66"/>
       <c r="AC16" s="66"/>
       <c r="AD16" s="67"/>
-      <c r="AE16" s="169" t="s">
+      <c r="AE16" s="170" t="s">
         <v>149</v>
       </c>
       <c r="AF16" s="66"/>
@@ -17642,18 +17681,18 @@
       <c r="AQ16" s="66"/>
       <c r="AR16" s="66"/>
       <c r="AS16" s="67"/>
-      <c r="AT16" s="83"/>
+      <c r="AT16" s="84"/>
       <c r="AU16" s="66"/>
       <c r="AV16" s="66"/>
       <c r="AW16" s="66"/>
       <c r="AX16" s="67"/>
     </row>
     <row r="17" spans="3:50" ht="15" customHeight="1">
-      <c r="C17" s="107"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="108"/>
-      <c r="G17" s="109"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="110"/>
       <c r="H17" s="73"/>
       <c r="I17" s="62"/>
       <c r="J17" s="62"/>
@@ -17699,11 +17738,11 @@
       <c r="AX17" s="38"/>
     </row>
     <row r="18" spans="3:50" ht="15" customHeight="1">
-      <c r="C18" s="107"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="109"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="110"/>
       <c r="H18" s="73"/>
       <c r="I18" s="62"/>
       <c r="J18" s="62"/>
@@ -17722,14 +17761,14 @@
       <c r="W18" s="62"/>
       <c r="X18" s="62"/>
       <c r="Y18" s="63"/>
-      <c r="Z18" s="103" t="s">
+      <c r="Z18" s="104" t="s">
         <v>44</v>
       </c>
       <c r="AA18" s="66"/>
       <c r="AB18" s="66"/>
       <c r="AC18" s="66"/>
       <c r="AD18" s="67"/>
-      <c r="AE18" s="104" t="s">
+      <c r="AE18" s="105" t="s">
         <v>147</v>
       </c>
       <c r="AF18" s="66"/>
@@ -17746,18 +17785,18 @@
       <c r="AQ18" s="66"/>
       <c r="AR18" s="66"/>
       <c r="AS18" s="67"/>
-      <c r="AT18" s="177"/>
+      <c r="AT18" s="178"/>
       <c r="AU18" s="66"/>
       <c r="AV18" s="66"/>
       <c r="AW18" s="66"/>
       <c r="AX18" s="67"/>
     </row>
     <row r="19" spans="3:50" ht="15" customHeight="1">
-      <c r="C19" s="107"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="109"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="110"/>
       <c r="H19" s="73"/>
       <c r="I19" s="62"/>
       <c r="J19" s="62"/>
@@ -17803,11 +17842,11 @@
       <c r="AX19" s="63"/>
     </row>
     <row r="20" spans="3:50" ht="15" customHeight="1">
-      <c r="C20" s="107"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="109"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="110"/>
       <c r="H20" s="73"/>
       <c r="I20" s="62"/>
       <c r="J20" s="62"/>
@@ -17853,11 +17892,11 @@
       <c r="AX20" s="63"/>
     </row>
     <row r="21" spans="3:50" ht="15" customHeight="1">
-      <c r="C21" s="107"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="109"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="110"/>
       <c r="H21" s="73"/>
       <c r="I21" s="62"/>
       <c r="J21" s="62"/>
@@ -17876,14 +17915,14 @@
       <c r="W21" s="62"/>
       <c r="X21" s="62"/>
       <c r="Y21" s="63"/>
-      <c r="Z21" s="103" t="s">
+      <c r="Z21" s="104" t="s">
         <v>44</v>
       </c>
       <c r="AA21" s="66"/>
       <c r="AB21" s="66"/>
       <c r="AC21" s="66"/>
       <c r="AD21" s="67"/>
-      <c r="AE21" s="83"/>
+      <c r="AE21" s="84"/>
       <c r="AF21" s="66"/>
       <c r="AG21" s="66"/>
       <c r="AH21" s="66"/>
@@ -17898,18 +17937,18 @@
       <c r="AQ21" s="66"/>
       <c r="AR21" s="66"/>
       <c r="AS21" s="67"/>
-      <c r="AT21" s="180"/>
+      <c r="AT21" s="186"/>
       <c r="AU21" s="66"/>
       <c r="AV21" s="66"/>
       <c r="AW21" s="66"/>
       <c r="AX21" s="67"/>
     </row>
     <row r="22" spans="3:50" ht="15" customHeight="1">
-      <c r="C22" s="107"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="109"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="110"/>
       <c r="H22" s="73"/>
       <c r="I22" s="62"/>
       <c r="J22" s="62"/>
@@ -17955,11 +17994,11 @@
       <c r="AX22" s="63"/>
     </row>
     <row r="23" spans="3:50" ht="15" customHeight="1">
-      <c r="C23" s="110"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="112"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="113"/>
       <c r="H23" s="74"/>
       <c r="I23" s="37"/>
       <c r="J23" s="37"/>
@@ -18005,28 +18044,28 @@
       <c r="AX23" s="63"/>
     </row>
     <row r="24" spans="3:50" ht="15" customHeight="1">
-      <c r="C24" s="103" t="s">
+      <c r="C24" s="104" t="s">
         <v>131</v>
       </c>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="106"/>
-      <c r="H24" s="83" t="s">
+      <c r="D24" s="106"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="84" t="s">
         <v>46</v>
       </c>
       <c r="I24" s="66"/>
       <c r="J24" s="66"/>
       <c r="K24" s="66"/>
       <c r="L24" s="67"/>
-      <c r="M24" s="179" t="s">
+      <c r="M24" s="185" t="s">
         <v>87</v>
       </c>
       <c r="N24" s="66"/>
       <c r="O24" s="66"/>
       <c r="P24" s="66"/>
       <c r="Q24" s="67"/>
-      <c r="R24" s="180" t="s">
+      <c r="R24" s="186" t="s">
         <v>91</v>
       </c>
       <c r="S24" s="66"/>
@@ -18036,14 +18075,14 @@
       <c r="W24" s="66"/>
       <c r="X24" s="66"/>
       <c r="Y24" s="67"/>
-      <c r="Z24" s="103" t="s">
+      <c r="Z24" s="104" t="s">
         <v>44</v>
       </c>
       <c r="AA24" s="66"/>
       <c r="AB24" s="66"/>
       <c r="AC24" s="66"/>
       <c r="AD24" s="67"/>
-      <c r="AE24" s="180" t="s">
+      <c r="AE24" s="186" t="s">
         <v>92</v>
       </c>
       <c r="AF24" s="66"/>
@@ -18060,18 +18099,18 @@
       <c r="AQ24" s="66"/>
       <c r="AR24" s="66"/>
       <c r="AS24" s="67"/>
-      <c r="AT24" s="83"/>
+      <c r="AT24" s="84"/>
       <c r="AU24" s="66"/>
       <c r="AV24" s="66"/>
       <c r="AW24" s="66"/>
       <c r="AX24" s="67"/>
     </row>
     <row r="25" spans="3:50" ht="15" customHeight="1">
-      <c r="C25" s="107"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="109"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="109"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="110"/>
       <c r="H25" s="73"/>
       <c r="I25" s="62"/>
       <c r="J25" s="62"/>
@@ -18117,11 +18156,11 @@
       <c r="AX25" s="63"/>
     </row>
     <row r="26" spans="3:50" ht="15" customHeight="1">
-      <c r="C26" s="107"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="108"/>
-      <c r="G26" s="109"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="109"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="109"/>
+      <c r="G26" s="110"/>
       <c r="H26" s="73"/>
       <c r="I26" s="62"/>
       <c r="J26" s="62"/>
@@ -18167,11 +18206,11 @@
       <c r="AX26" s="63"/>
     </row>
     <row r="27" spans="3:50" ht="15" customHeight="1">
-      <c r="C27" s="107"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="108"/>
-      <c r="G27" s="109"/>
+      <c r="C27" s="108"/>
+      <c r="D27" s="109"/>
+      <c r="E27" s="109"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="110"/>
       <c r="H27" s="73"/>
       <c r="I27" s="62"/>
       <c r="J27" s="62"/>
@@ -18190,14 +18229,14 @@
       <c r="W27" s="62"/>
       <c r="X27" s="62"/>
       <c r="Y27" s="63"/>
-      <c r="Z27" s="168" t="s">
+      <c r="Z27" s="169" t="s">
         <v>89</v>
       </c>
       <c r="AA27" s="66"/>
       <c r="AB27" s="66"/>
       <c r="AC27" s="66"/>
       <c r="AD27" s="67"/>
-      <c r="AE27" s="169" t="s">
+      <c r="AE27" s="170" t="s">
         <v>93</v>
       </c>
       <c r="AF27" s="66"/>
@@ -18214,7 +18253,7 @@
       <c r="AQ27" s="66"/>
       <c r="AR27" s="66"/>
       <c r="AS27" s="67"/>
-      <c r="AT27" s="170" t="s">
+      <c r="AT27" s="171" t="s">
         <v>94</v>
       </c>
       <c r="AU27" s="66"/>
@@ -18223,11 +18262,11 @@
       <c r="AX27" s="67"/>
     </row>
     <row r="28" spans="3:50" ht="15" customHeight="1">
-      <c r="C28" s="107"/>
-      <c r="D28" s="108"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="108"/>
-      <c r="G28" s="109"/>
+      <c r="C28" s="108"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="109"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="110"/>
       <c r="H28" s="73"/>
       <c r="I28" s="62"/>
       <c r="J28" s="62"/>
@@ -18273,11 +18312,11 @@
       <c r="AX28" s="63"/>
     </row>
     <row r="29" spans="3:50" ht="15" customHeight="1">
-      <c r="C29" s="107"/>
-      <c r="D29" s="108"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="108"/>
-      <c r="G29" s="109"/>
+      <c r="C29" s="108"/>
+      <c r="D29" s="109"/>
+      <c r="E29" s="109"/>
+      <c r="F29" s="109"/>
+      <c r="G29" s="110"/>
       <c r="H29" s="73"/>
       <c r="I29" s="62"/>
       <c r="J29" s="62"/>
@@ -18323,11 +18362,11 @@
       <c r="AX29" s="63"/>
     </row>
     <row r="30" spans="3:50" ht="15" customHeight="1">
-      <c r="C30" s="107"/>
-      <c r="D30" s="108"/>
-      <c r="E30" s="108"/>
-      <c r="F30" s="108"/>
-      <c r="G30" s="109"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="109"/>
+      <c r="E30" s="109"/>
+      <c r="F30" s="109"/>
+      <c r="G30" s="110"/>
       <c r="H30" s="73"/>
       <c r="I30" s="62"/>
       <c r="J30" s="62"/>
@@ -18346,12 +18385,12 @@
       <c r="W30" s="62"/>
       <c r="X30" s="62"/>
       <c r="Y30" s="63"/>
-      <c r="Z30" s="123"/>
+      <c r="Z30" s="124"/>
       <c r="AA30" s="66"/>
       <c r="AB30" s="66"/>
       <c r="AC30" s="66"/>
       <c r="AD30" s="67"/>
-      <c r="AE30" s="83"/>
+      <c r="AE30" s="84"/>
       <c r="AF30" s="66"/>
       <c r="AG30" s="66"/>
       <c r="AH30" s="66"/>
@@ -18366,18 +18405,18 @@
       <c r="AQ30" s="66"/>
       <c r="AR30" s="66"/>
       <c r="AS30" s="67"/>
-      <c r="AT30" s="83"/>
+      <c r="AT30" s="84"/>
       <c r="AU30" s="66"/>
       <c r="AV30" s="66"/>
       <c r="AW30" s="66"/>
       <c r="AX30" s="67"/>
     </row>
     <row r="31" spans="3:50" ht="15" customHeight="1">
-      <c r="C31" s="107"/>
-      <c r="D31" s="108"/>
-      <c r="E31" s="108"/>
-      <c r="F31" s="108"/>
-      <c r="G31" s="109"/>
+      <c r="C31" s="108"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="110"/>
       <c r="H31" s="73"/>
       <c r="I31" s="62"/>
       <c r="J31" s="62"/>
@@ -18423,11 +18462,11 @@
       <c r="AX31" s="63"/>
     </row>
     <row r="32" spans="3:50" ht="15" customHeight="1">
-      <c r="C32" s="110"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="111"/>
-      <c r="F32" s="111"/>
-      <c r="G32" s="112"/>
+      <c r="C32" s="111"/>
+      <c r="D32" s="112"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="112"/>
+      <c r="G32" s="113"/>
       <c r="H32" s="74"/>
       <c r="I32" s="37"/>
       <c r="J32" s="37"/>
@@ -19518,8 +19557,8 @@
   </sheetPr>
   <dimension ref="C1:AZ990"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8:AX8"/>
+    <sheetView topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="AE36" sqref="AE36:AS38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -19546,14 +19585,14 @@
       <c r="AU2" s="2"/>
     </row>
     <row r="3" spans="3:52" ht="15" customHeight="1">
-      <c r="C3" s="129" t="s">
+      <c r="C3" s="130" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="66"/>
       <c r="E3" s="66"/>
       <c r="F3" s="66"/>
       <c r="G3" s="67"/>
-      <c r="H3" s="125" t="s">
+      <c r="H3" s="126" t="s">
         <v>1</v>
       </c>
       <c r="I3" s="35"/>
@@ -19577,7 +19616,7 @@
       <c r="AA3" s="35"/>
       <c r="AB3" s="35"/>
       <c r="AC3" s="34"/>
-      <c r="AD3" s="125" t="s">
+      <c r="AD3" s="126" t="s">
         <v>2</v>
       </c>
       <c r="AE3" s="35"/>
@@ -19609,7 +19648,7 @@
       <c r="E4" s="62"/>
       <c r="F4" s="62"/>
       <c r="G4" s="63"/>
-      <c r="H4" s="125" t="s">
+      <c r="H4" s="126" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="35"/>
@@ -19635,13 +19674,13 @@
       <c r="AA4" s="35"/>
       <c r="AB4" s="35"/>
       <c r="AC4" s="34"/>
-      <c r="AD4" s="125" t="s">
+      <c r="AD4" s="126" t="s">
         <v>4</v>
       </c>
       <c r="AE4" s="35"/>
       <c r="AF4" s="35"/>
       <c r="AG4" s="34"/>
-      <c r="AH4" s="132">
+      <c r="AH4" s="133">
         <v>44572</v>
       </c>
       <c r="AI4" s="35"/>
@@ -19667,7 +19706,7 @@
       <c r="E5" s="62"/>
       <c r="F5" s="62"/>
       <c r="G5" s="63"/>
-      <c r="H5" s="125" t="s">
+      <c r="H5" s="126" t="s">
         <v>5</v>
       </c>
       <c r="I5" s="35"/>
@@ -19693,13 +19732,13 @@
       <c r="AA5" s="35"/>
       <c r="AB5" s="35"/>
       <c r="AC5" s="34"/>
-      <c r="AD5" s="125" t="s">
+      <c r="AD5" s="126" t="s">
         <v>6</v>
       </c>
       <c r="AE5" s="35"/>
       <c r="AF5" s="35"/>
       <c r="AG5" s="34"/>
-      <c r="AH5" s="133">
+      <c r="AH5" s="134">
         <v>1</v>
       </c>
       <c r="AI5" s="35"/>
@@ -19725,7 +19764,7 @@
       <c r="E6" s="62"/>
       <c r="F6" s="62"/>
       <c r="G6" s="63"/>
-      <c r="H6" s="125" t="s">
+      <c r="H6" s="126" t="s">
         <v>7</v>
       </c>
       <c r="I6" s="35"/>
@@ -19751,7 +19790,7 @@
       <c r="AA6" s="35"/>
       <c r="AB6" s="35"/>
       <c r="AC6" s="34"/>
-      <c r="AD6" s="125" t="s">
+      <c r="AD6" s="126" t="s">
         <v>8</v>
       </c>
       <c r="AE6" s="35"/>
@@ -19781,7 +19820,7 @@
       <c r="E7" s="37"/>
       <c r="F7" s="37"/>
       <c r="G7" s="38"/>
-      <c r="H7" s="125" t="s">
+      <c r="H7" s="126" t="s">
         <v>9</v>
       </c>
       <c r="I7" s="35"/>
@@ -19807,13 +19846,13 @@
       <c r="AA7" s="35"/>
       <c r="AB7" s="35"/>
       <c r="AC7" s="34"/>
-      <c r="AD7" s="125" t="s">
+      <c r="AD7" s="126" t="s">
         <v>10</v>
       </c>
       <c r="AE7" s="35"/>
       <c r="AF7" s="35"/>
       <c r="AG7" s="34"/>
-      <c r="AH7" s="131"/>
+      <c r="AH7" s="132"/>
       <c r="AI7" s="35"/>
       <c r="AJ7" s="35"/>
       <c r="AK7" s="35"/>
@@ -19832,14 +19871,14 @@
       <c r="AX7" s="34"/>
     </row>
     <row r="8" spans="3:52" ht="15" customHeight="1">
-      <c r="C8" s="129" t="s">
+      <c r="C8" s="130" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="66"/>
       <c r="E8" s="66"/>
       <c r="F8" s="66"/>
       <c r="G8" s="67"/>
-      <c r="H8" s="125" t="s">
+      <c r="H8" s="126" t="s">
         <v>12</v>
       </c>
       <c r="I8" s="35"/>
@@ -19893,7 +19932,7 @@
       <c r="E9" s="62"/>
       <c r="F9" s="62"/>
       <c r="G9" s="63"/>
-      <c r="H9" s="125" t="s">
+      <c r="H9" s="126" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="35"/>
@@ -19947,14 +19986,14 @@
       <c r="E10" s="37"/>
       <c r="F10" s="37"/>
       <c r="G10" s="38"/>
-      <c r="H10" s="130" t="s">
+      <c r="H10" s="131" t="s">
         <v>14</v>
       </c>
       <c r="I10" s="35"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
       <c r="L10" s="34"/>
-      <c r="M10" s="183" t="s">
+      <c r="M10" s="189" t="s">
         <v>153</v>
       </c>
       <c r="N10" s="35"/>
@@ -19996,14 +20035,14 @@
       <c r="AX10" s="34"/>
     </row>
     <row r="11" spans="3:52" ht="15" customHeight="1">
-      <c r="C11" s="125" t="s">
+      <c r="C11" s="126" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="35"/>
       <c r="F11" s="35"/>
       <c r="G11" s="34"/>
-      <c r="H11" s="125" t="s">
+      <c r="H11" s="126" t="s">
         <v>16</v>
       </c>
       <c r="I11" s="35"/>
@@ -20062,28 +20101,28 @@
       <c r="AZ11" s="1"/>
     </row>
     <row r="12" spans="3:52" ht="15" customHeight="1">
-      <c r="C12" s="103" t="s">
+      <c r="C12" s="104" t="s">
         <v>157</v>
       </c>
-      <c r="D12" s="105"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="181" t="s">
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="187" t="s">
         <v>135</v>
       </c>
       <c r="I12" s="62"/>
       <c r="J12" s="62"/>
       <c r="K12" s="62"/>
       <c r="L12" s="63"/>
-      <c r="M12" s="182" t="s">
+      <c r="M12" s="188" t="s">
         <v>88</v>
       </c>
       <c r="N12" s="62"/>
       <c r="O12" s="62"/>
       <c r="P12" s="62"/>
       <c r="Q12" s="63"/>
-      <c r="R12" s="178" t="s">
+      <c r="R12" s="179" t="s">
         <v>156</v>
       </c>
       <c r="S12" s="62"/>
@@ -20093,44 +20132,44 @@
       <c r="W12" s="62"/>
       <c r="X12" s="62"/>
       <c r="Y12" s="63"/>
-      <c r="Z12" s="168" t="s">
+      <c r="Z12" s="169" t="s">
         <v>154</v>
       </c>
       <c r="AA12" s="66"/>
       <c r="AB12" s="66"/>
       <c r="AC12" s="66"/>
       <c r="AD12" s="67"/>
-      <c r="AE12" s="162" t="s">
+      <c r="AE12" s="163" t="s">
         <v>185</v>
       </c>
-      <c r="AF12" s="163"/>
-      <c r="AG12" s="163"/>
-      <c r="AH12" s="163"/>
-      <c r="AI12" s="163"/>
-      <c r="AJ12" s="163"/>
-      <c r="AK12" s="163"/>
-      <c r="AL12" s="163"/>
-      <c r="AM12" s="163"/>
-      <c r="AN12" s="163"/>
-      <c r="AO12" s="163"/>
-      <c r="AP12" s="163"/>
-      <c r="AQ12" s="163"/>
-      <c r="AR12" s="163"/>
-      <c r="AS12" s="164"/>
-      <c r="AT12" s="171" t="s">
+      <c r="AF12" s="164"/>
+      <c r="AG12" s="164"/>
+      <c r="AH12" s="164"/>
+      <c r="AI12" s="164"/>
+      <c r="AJ12" s="164"/>
+      <c r="AK12" s="164"/>
+      <c r="AL12" s="164"/>
+      <c r="AM12" s="164"/>
+      <c r="AN12" s="164"/>
+      <c r="AO12" s="164"/>
+      <c r="AP12" s="164"/>
+      <c r="AQ12" s="164"/>
+      <c r="AR12" s="164"/>
+      <c r="AS12" s="165"/>
+      <c r="AT12" s="172" t="s">
         <v>82</v>
       </c>
-      <c r="AU12" s="172"/>
-      <c r="AV12" s="172"/>
-      <c r="AW12" s="172"/>
-      <c r="AX12" s="173"/>
+      <c r="AU12" s="173"/>
+      <c r="AV12" s="173"/>
+      <c r="AW12" s="173"/>
+      <c r="AX12" s="174"/>
     </row>
     <row r="13" spans="3:52" ht="15" customHeight="1">
-      <c r="C13" s="107"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="108"/>
-      <c r="G13" s="109"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="110"/>
       <c r="H13" s="73"/>
       <c r="I13" s="62"/>
       <c r="J13" s="62"/>
@@ -20154,33 +20193,33 @@
       <c r="AB13" s="37"/>
       <c r="AC13" s="37"/>
       <c r="AD13" s="38"/>
-      <c r="AE13" s="165"/>
-      <c r="AF13" s="166"/>
-      <c r="AG13" s="166"/>
-      <c r="AH13" s="166"/>
-      <c r="AI13" s="166"/>
-      <c r="AJ13" s="166"/>
-      <c r="AK13" s="166"/>
-      <c r="AL13" s="166"/>
-      <c r="AM13" s="166"/>
-      <c r="AN13" s="166"/>
-      <c r="AO13" s="166"/>
-      <c r="AP13" s="166"/>
-      <c r="AQ13" s="166"/>
-      <c r="AR13" s="166"/>
-      <c r="AS13" s="167"/>
-      <c r="AT13" s="174"/>
-      <c r="AU13" s="175"/>
-      <c r="AV13" s="175"/>
-      <c r="AW13" s="175"/>
-      <c r="AX13" s="176"/>
+      <c r="AE13" s="166"/>
+      <c r="AF13" s="167"/>
+      <c r="AG13" s="167"/>
+      <c r="AH13" s="167"/>
+      <c r="AI13" s="167"/>
+      <c r="AJ13" s="167"/>
+      <c r="AK13" s="167"/>
+      <c r="AL13" s="167"/>
+      <c r="AM13" s="167"/>
+      <c r="AN13" s="167"/>
+      <c r="AO13" s="167"/>
+      <c r="AP13" s="167"/>
+      <c r="AQ13" s="167"/>
+      <c r="AR13" s="167"/>
+      <c r="AS13" s="168"/>
+      <c r="AT13" s="175"/>
+      <c r="AU13" s="176"/>
+      <c r="AV13" s="176"/>
+      <c r="AW13" s="176"/>
+      <c r="AX13" s="177"/>
     </row>
     <row r="14" spans="3:52" ht="15" customHeight="1">
-      <c r="C14" s="107"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="108"/>
-      <c r="G14" s="109"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="110"/>
       <c r="H14" s="73"/>
       <c r="I14" s="62"/>
       <c r="J14" s="62"/>
@@ -20199,14 +20238,14 @@
       <c r="W14" s="62"/>
       <c r="X14" s="62"/>
       <c r="Y14" s="63"/>
-      <c r="Z14" s="168" t="s">
+      <c r="Z14" s="169" t="s">
         <v>155</v>
       </c>
       <c r="AA14" s="66"/>
       <c r="AB14" s="66"/>
       <c r="AC14" s="66"/>
       <c r="AD14" s="67"/>
-      <c r="AE14" s="169" t="s">
+      <c r="AE14" s="170" t="s">
         <v>187</v>
       </c>
       <c r="AF14" s="66"/>
@@ -20223,18 +20262,18 @@
       <c r="AQ14" s="66"/>
       <c r="AR14" s="66"/>
       <c r="AS14" s="67"/>
-      <c r="AT14" s="171"/>
-      <c r="AU14" s="172"/>
-      <c r="AV14" s="172"/>
-      <c r="AW14" s="172"/>
-      <c r="AX14" s="173"/>
+      <c r="AT14" s="172"/>
+      <c r="AU14" s="173"/>
+      <c r="AV14" s="173"/>
+      <c r="AW14" s="173"/>
+      <c r="AX14" s="174"/>
     </row>
     <row r="15" spans="3:52" ht="15" customHeight="1">
-      <c r="C15" s="107"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="109"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="110"/>
       <c r="H15" s="73"/>
       <c r="I15" s="62"/>
       <c r="J15" s="62"/>
@@ -20273,18 +20312,18 @@
       <c r="AQ15" s="37"/>
       <c r="AR15" s="37"/>
       <c r="AS15" s="38"/>
-      <c r="AT15" s="174"/>
-      <c r="AU15" s="175"/>
-      <c r="AV15" s="175"/>
-      <c r="AW15" s="175"/>
-      <c r="AX15" s="176"/>
+      <c r="AT15" s="175"/>
+      <c r="AU15" s="176"/>
+      <c r="AV15" s="176"/>
+      <c r="AW15" s="176"/>
+      <c r="AX15" s="177"/>
     </row>
     <row r="16" spans="3:52" ht="15" customHeight="1">
-      <c r="C16" s="107"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="109"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="110"/>
       <c r="H16" s="73"/>
       <c r="I16" s="62"/>
       <c r="J16" s="62"/>
@@ -20303,14 +20342,14 @@
       <c r="W16" s="62"/>
       <c r="X16" s="62"/>
       <c r="Y16" s="63"/>
-      <c r="Z16" s="168" t="s">
+      <c r="Z16" s="169" t="s">
         <v>155</v>
       </c>
       <c r="AA16" s="66"/>
       <c r="AB16" s="66"/>
       <c r="AC16" s="66"/>
       <c r="AD16" s="67"/>
-      <c r="AE16" s="169" t="s">
+      <c r="AE16" s="170" t="s">
         <v>186</v>
       </c>
       <c r="AF16" s="66"/>
@@ -20327,18 +20366,18 @@
       <c r="AQ16" s="66"/>
       <c r="AR16" s="66"/>
       <c r="AS16" s="67"/>
-      <c r="AT16" s="83"/>
+      <c r="AT16" s="84"/>
       <c r="AU16" s="66"/>
       <c r="AV16" s="66"/>
       <c r="AW16" s="66"/>
       <c r="AX16" s="67"/>
     </row>
     <row r="17" spans="3:50" ht="15" customHeight="1">
-      <c r="C17" s="107"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="108"/>
-      <c r="G17" s="109"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="110"/>
       <c r="H17" s="73"/>
       <c r="I17" s="62"/>
       <c r="J17" s="62"/>
@@ -20384,11 +20423,11 @@
       <c r="AX17" s="38"/>
     </row>
     <row r="18" spans="3:50" ht="15" customHeight="1">
-      <c r="C18" s="107"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="109"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="110"/>
       <c r="H18" s="73"/>
       <c r="I18" s="62"/>
       <c r="J18" s="62"/>
@@ -20407,14 +20446,14 @@
       <c r="W18" s="62"/>
       <c r="X18" s="62"/>
       <c r="Y18" s="63"/>
-      <c r="Z18" s="103" t="s">
+      <c r="Z18" s="104" t="s">
         <v>44</v>
       </c>
       <c r="AA18" s="66"/>
       <c r="AB18" s="66"/>
       <c r="AC18" s="66"/>
       <c r="AD18" s="67"/>
-      <c r="AE18" s="104"/>
+      <c r="AE18" s="105"/>
       <c r="AF18" s="66"/>
       <c r="AG18" s="66"/>
       <c r="AH18" s="66"/>
@@ -20429,18 +20468,18 @@
       <c r="AQ18" s="66"/>
       <c r="AR18" s="66"/>
       <c r="AS18" s="67"/>
-      <c r="AT18" s="177"/>
+      <c r="AT18" s="178"/>
       <c r="AU18" s="66"/>
       <c r="AV18" s="66"/>
       <c r="AW18" s="66"/>
       <c r="AX18" s="67"/>
     </row>
     <row r="19" spans="3:50" ht="15" customHeight="1">
-      <c r="C19" s="107"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="109"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="110"/>
       <c r="H19" s="73"/>
       <c r="I19" s="62"/>
       <c r="J19" s="62"/>
@@ -20486,11 +20525,11 @@
       <c r="AX19" s="63"/>
     </row>
     <row r="20" spans="3:50" ht="15" customHeight="1">
-      <c r="C20" s="107"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="109"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="110"/>
       <c r="H20" s="73"/>
       <c r="I20" s="62"/>
       <c r="J20" s="62"/>
@@ -20536,11 +20575,11 @@
       <c r="AX20" s="63"/>
     </row>
     <row r="21" spans="3:50" ht="15" customHeight="1">
-      <c r="C21" s="107"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="109"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="110"/>
       <c r="H21" s="73"/>
       <c r="I21" s="62"/>
       <c r="J21" s="62"/>
@@ -20559,14 +20598,14 @@
       <c r="W21" s="62"/>
       <c r="X21" s="62"/>
       <c r="Y21" s="63"/>
-      <c r="Z21" s="103" t="s">
+      <c r="Z21" s="104" t="s">
         <v>44</v>
       </c>
       <c r="AA21" s="66"/>
       <c r="AB21" s="66"/>
       <c r="AC21" s="66"/>
       <c r="AD21" s="67"/>
-      <c r="AE21" s="83"/>
+      <c r="AE21" s="84"/>
       <c r="AF21" s="66"/>
       <c r="AG21" s="66"/>
       <c r="AH21" s="66"/>
@@ -20581,18 +20620,18 @@
       <c r="AQ21" s="66"/>
       <c r="AR21" s="66"/>
       <c r="AS21" s="67"/>
-      <c r="AT21" s="180"/>
+      <c r="AT21" s="186"/>
       <c r="AU21" s="66"/>
       <c r="AV21" s="66"/>
       <c r="AW21" s="66"/>
       <c r="AX21" s="67"/>
     </row>
     <row r="22" spans="3:50" ht="15" customHeight="1">
-      <c r="C22" s="107"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="109"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="110"/>
       <c r="H22" s="73"/>
       <c r="I22" s="62"/>
       <c r="J22" s="62"/>
@@ -20638,11 +20677,11 @@
       <c r="AX22" s="63"/>
     </row>
     <row r="23" spans="3:50" ht="15" customHeight="1">
-      <c r="C23" s="110"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="112"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="113"/>
       <c r="H23" s="74"/>
       <c r="I23" s="37"/>
       <c r="J23" s="37"/>
@@ -20688,28 +20727,28 @@
       <c r="AX23" s="63"/>
     </row>
     <row r="24" spans="3:50" ht="15" customHeight="1">
-      <c r="C24" s="103" t="s">
+      <c r="C24" s="104" t="s">
         <v>158</v>
       </c>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="106"/>
-      <c r="H24" s="83" t="s">
+      <c r="D24" s="106"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="84" t="s">
         <v>46</v>
       </c>
       <c r="I24" s="66"/>
       <c r="J24" s="66"/>
       <c r="K24" s="66"/>
       <c r="L24" s="67"/>
-      <c r="M24" s="179" t="s">
+      <c r="M24" s="185" t="s">
         <v>208</v>
       </c>
       <c r="N24" s="66"/>
       <c r="O24" s="66"/>
       <c r="P24" s="66"/>
       <c r="Q24" s="67"/>
-      <c r="R24" s="180" t="s">
+      <c r="R24" s="186" t="s">
         <v>209</v>
       </c>
       <c r="S24" s="66"/>
@@ -20719,42 +20758,42 @@
       <c r="W24" s="66"/>
       <c r="X24" s="66"/>
       <c r="Y24" s="67"/>
-      <c r="Z24" s="103" t="s">
+      <c r="Z24" s="104" t="s">
         <v>44</v>
       </c>
       <c r="AA24" s="66"/>
       <c r="AB24" s="66"/>
       <c r="AC24" s="66"/>
       <c r="AD24" s="67"/>
-      <c r="AE24" s="212" t="s">
-        <v>210</v>
-      </c>
-      <c r="AF24" s="201"/>
-      <c r="AG24" s="201"/>
-      <c r="AH24" s="201"/>
-      <c r="AI24" s="201"/>
-      <c r="AJ24" s="201"/>
-      <c r="AK24" s="201"/>
-      <c r="AL24" s="201"/>
-      <c r="AM24" s="201"/>
-      <c r="AN24" s="201"/>
-      <c r="AO24" s="201"/>
-      <c r="AP24" s="201"/>
-      <c r="AQ24" s="201"/>
-      <c r="AR24" s="201"/>
-      <c r="AS24" s="202"/>
-      <c r="AT24" s="83"/>
+      <c r="AE24" s="227" t="s">
+        <v>211</v>
+      </c>
+      <c r="AF24" s="210"/>
+      <c r="AG24" s="210"/>
+      <c r="AH24" s="210"/>
+      <c r="AI24" s="210"/>
+      <c r="AJ24" s="210"/>
+      <c r="AK24" s="210"/>
+      <c r="AL24" s="210"/>
+      <c r="AM24" s="210"/>
+      <c r="AN24" s="210"/>
+      <c r="AO24" s="210"/>
+      <c r="AP24" s="210"/>
+      <c r="AQ24" s="210"/>
+      <c r="AR24" s="210"/>
+      <c r="AS24" s="211"/>
+      <c r="AT24" s="84"/>
       <c r="AU24" s="66"/>
       <c r="AV24" s="66"/>
       <c r="AW24" s="66"/>
       <c r="AX24" s="67"/>
     </row>
     <row r="25" spans="3:50" ht="15" customHeight="1">
-      <c r="C25" s="107"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="109"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="109"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="110"/>
       <c r="H25" s="73"/>
       <c r="I25" s="62"/>
       <c r="J25" s="62"/>
@@ -20778,21 +20817,21 @@
       <c r="AB25" s="62"/>
       <c r="AC25" s="62"/>
       <c r="AD25" s="63"/>
-      <c r="AE25" s="213"/>
-      <c r="AF25" s="214"/>
-      <c r="AG25" s="214"/>
-      <c r="AH25" s="214"/>
-      <c r="AI25" s="214"/>
-      <c r="AJ25" s="214"/>
-      <c r="AK25" s="214"/>
-      <c r="AL25" s="214"/>
-      <c r="AM25" s="214"/>
-      <c r="AN25" s="214"/>
-      <c r="AO25" s="214"/>
-      <c r="AP25" s="214"/>
-      <c r="AQ25" s="214"/>
-      <c r="AR25" s="214"/>
-      <c r="AS25" s="215"/>
+      <c r="AE25" s="228"/>
+      <c r="AF25" s="229"/>
+      <c r="AG25" s="229"/>
+      <c r="AH25" s="229"/>
+      <c r="AI25" s="229"/>
+      <c r="AJ25" s="229"/>
+      <c r="AK25" s="229"/>
+      <c r="AL25" s="229"/>
+      <c r="AM25" s="229"/>
+      <c r="AN25" s="229"/>
+      <c r="AO25" s="229"/>
+      <c r="AP25" s="229"/>
+      <c r="AQ25" s="229"/>
+      <c r="AR25" s="229"/>
+      <c r="AS25" s="230"/>
       <c r="AT25" s="73"/>
       <c r="AU25" s="62"/>
       <c r="AV25" s="62"/>
@@ -20800,11 +20839,11 @@
       <c r="AX25" s="63"/>
     </row>
     <row r="26" spans="3:50" ht="15" customHeight="1">
-      <c r="C26" s="107"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="108"/>
-      <c r="G26" s="109"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="109"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="109"/>
+      <c r="G26" s="110"/>
       <c r="H26" s="73"/>
       <c r="I26" s="62"/>
       <c r="J26" s="62"/>
@@ -20828,21 +20867,21 @@
       <c r="AB26" s="37"/>
       <c r="AC26" s="37"/>
       <c r="AD26" s="38"/>
-      <c r="AE26" s="213"/>
-      <c r="AF26" s="214"/>
-      <c r="AG26" s="214"/>
-      <c r="AH26" s="214"/>
-      <c r="AI26" s="214"/>
-      <c r="AJ26" s="214"/>
-      <c r="AK26" s="214"/>
-      <c r="AL26" s="214"/>
-      <c r="AM26" s="214"/>
-      <c r="AN26" s="214"/>
-      <c r="AO26" s="214"/>
-      <c r="AP26" s="214"/>
-      <c r="AQ26" s="214"/>
-      <c r="AR26" s="214"/>
-      <c r="AS26" s="215"/>
+      <c r="AE26" s="228"/>
+      <c r="AF26" s="229"/>
+      <c r="AG26" s="229"/>
+      <c r="AH26" s="229"/>
+      <c r="AI26" s="229"/>
+      <c r="AJ26" s="229"/>
+      <c r="AK26" s="229"/>
+      <c r="AL26" s="229"/>
+      <c r="AM26" s="229"/>
+      <c r="AN26" s="229"/>
+      <c r="AO26" s="229"/>
+      <c r="AP26" s="229"/>
+      <c r="AQ26" s="229"/>
+      <c r="AR26" s="229"/>
+      <c r="AS26" s="230"/>
       <c r="AT26" s="73"/>
       <c r="AU26" s="62"/>
       <c r="AV26" s="62"/>
@@ -20850,11 +20889,11 @@
       <c r="AX26" s="63"/>
     </row>
     <row r="27" spans="3:50" ht="15" customHeight="1">
-      <c r="C27" s="107"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="108"/>
-      <c r="G27" s="109"/>
+      <c r="C27" s="108"/>
+      <c r="D27" s="109"/>
+      <c r="E27" s="109"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="110"/>
       <c r="H27" s="73"/>
       <c r="I27" s="62"/>
       <c r="J27" s="62"/>
@@ -20873,42 +20912,42 @@
       <c r="W27" s="62"/>
       <c r="X27" s="62"/>
       <c r="Y27" s="63"/>
-      <c r="Z27" s="168" t="s">
+      <c r="Z27" s="169" t="s">
         <v>89</v>
       </c>
       <c r="AA27" s="66"/>
       <c r="AB27" s="66"/>
       <c r="AC27" s="66"/>
       <c r="AD27" s="67"/>
-      <c r="AE27" s="216" t="s">
-        <v>211</v>
-      </c>
-      <c r="AF27" s="201"/>
-      <c r="AG27" s="201"/>
-      <c r="AH27" s="201"/>
-      <c r="AI27" s="201"/>
-      <c r="AJ27" s="201"/>
-      <c r="AK27" s="201"/>
-      <c r="AL27" s="201"/>
-      <c r="AM27" s="201"/>
-      <c r="AN27" s="201"/>
-      <c r="AO27" s="201"/>
-      <c r="AP27" s="201"/>
-      <c r="AQ27" s="201"/>
-      <c r="AR27" s="201"/>
-      <c r="AS27" s="202"/>
-      <c r="AT27" s="170"/>
+      <c r="AE27" s="231" t="s">
+        <v>212</v>
+      </c>
+      <c r="AF27" s="210"/>
+      <c r="AG27" s="210"/>
+      <c r="AH27" s="210"/>
+      <c r="AI27" s="210"/>
+      <c r="AJ27" s="210"/>
+      <c r="AK27" s="210"/>
+      <c r="AL27" s="210"/>
+      <c r="AM27" s="210"/>
+      <c r="AN27" s="210"/>
+      <c r="AO27" s="210"/>
+      <c r="AP27" s="210"/>
+      <c r="AQ27" s="210"/>
+      <c r="AR27" s="210"/>
+      <c r="AS27" s="211"/>
+      <c r="AT27" s="171"/>
       <c r="AU27" s="66"/>
       <c r="AV27" s="66"/>
       <c r="AW27" s="66"/>
       <c r="AX27" s="67"/>
     </row>
     <row r="28" spans="3:50" ht="15" customHeight="1">
-      <c r="C28" s="107"/>
-      <c r="D28" s="108"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="108"/>
-      <c r="G28" s="109"/>
+      <c r="C28" s="108"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="109"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="110"/>
       <c r="H28" s="73"/>
       <c r="I28" s="62"/>
       <c r="J28" s="62"/>
@@ -20932,21 +20971,21 @@
       <c r="AB28" s="62"/>
       <c r="AC28" s="62"/>
       <c r="AD28" s="63"/>
-      <c r="AE28" s="213"/>
-      <c r="AF28" s="214"/>
-      <c r="AG28" s="214"/>
-      <c r="AH28" s="214"/>
-      <c r="AI28" s="214"/>
-      <c r="AJ28" s="214"/>
-      <c r="AK28" s="214"/>
-      <c r="AL28" s="214"/>
-      <c r="AM28" s="214"/>
-      <c r="AN28" s="214"/>
-      <c r="AO28" s="214"/>
-      <c r="AP28" s="214"/>
-      <c r="AQ28" s="214"/>
-      <c r="AR28" s="214"/>
-      <c r="AS28" s="215"/>
+      <c r="AE28" s="228"/>
+      <c r="AF28" s="229"/>
+      <c r="AG28" s="229"/>
+      <c r="AH28" s="229"/>
+      <c r="AI28" s="229"/>
+      <c r="AJ28" s="229"/>
+      <c r="AK28" s="229"/>
+      <c r="AL28" s="229"/>
+      <c r="AM28" s="229"/>
+      <c r="AN28" s="229"/>
+      <c r="AO28" s="229"/>
+      <c r="AP28" s="229"/>
+      <c r="AQ28" s="229"/>
+      <c r="AR28" s="229"/>
+      <c r="AS28" s="230"/>
       <c r="AT28" s="73"/>
       <c r="AU28" s="62"/>
       <c r="AV28" s="62"/>
@@ -20954,11 +20993,11 @@
       <c r="AX28" s="63"/>
     </row>
     <row r="29" spans="3:50" ht="15" customHeight="1">
-      <c r="C29" s="107"/>
-      <c r="D29" s="108"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="108"/>
-      <c r="G29" s="109"/>
+      <c r="C29" s="108"/>
+      <c r="D29" s="109"/>
+      <c r="E29" s="109"/>
+      <c r="F29" s="109"/>
+      <c r="G29" s="110"/>
       <c r="H29" s="73"/>
       <c r="I29" s="62"/>
       <c r="J29" s="62"/>
@@ -20982,21 +21021,21 @@
       <c r="AB29" s="37"/>
       <c r="AC29" s="37"/>
       <c r="AD29" s="38"/>
-      <c r="AE29" s="206"/>
-      <c r="AF29" s="207"/>
-      <c r="AG29" s="207"/>
-      <c r="AH29" s="207"/>
-      <c r="AI29" s="207"/>
-      <c r="AJ29" s="207"/>
-      <c r="AK29" s="207"/>
-      <c r="AL29" s="207"/>
-      <c r="AM29" s="207"/>
-      <c r="AN29" s="207"/>
-      <c r="AO29" s="207"/>
-      <c r="AP29" s="207"/>
-      <c r="AQ29" s="207"/>
-      <c r="AR29" s="207"/>
-      <c r="AS29" s="208"/>
+      <c r="AE29" s="215"/>
+      <c r="AF29" s="216"/>
+      <c r="AG29" s="216"/>
+      <c r="AH29" s="216"/>
+      <c r="AI29" s="216"/>
+      <c r="AJ29" s="216"/>
+      <c r="AK29" s="216"/>
+      <c r="AL29" s="216"/>
+      <c r="AM29" s="216"/>
+      <c r="AN29" s="216"/>
+      <c r="AO29" s="216"/>
+      <c r="AP29" s="216"/>
+      <c r="AQ29" s="216"/>
+      <c r="AR29" s="216"/>
+      <c r="AS29" s="217"/>
       <c r="AT29" s="73"/>
       <c r="AU29" s="62"/>
       <c r="AV29" s="62"/>
@@ -21004,11 +21043,11 @@
       <c r="AX29" s="63"/>
     </row>
     <row r="30" spans="3:50" ht="15" customHeight="1">
-      <c r="C30" s="107"/>
-      <c r="D30" s="108"/>
-      <c r="E30" s="108"/>
-      <c r="F30" s="108"/>
-      <c r="G30" s="109"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="109"/>
+      <c r="E30" s="109"/>
+      <c r="F30" s="109"/>
+      <c r="G30" s="110"/>
       <c r="H30" s="73"/>
       <c r="I30" s="62"/>
       <c r="J30" s="62"/>
@@ -21027,12 +21066,12 @@
       <c r="W30" s="62"/>
       <c r="X30" s="62"/>
       <c r="Y30" s="63"/>
-      <c r="Z30" s="123"/>
+      <c r="Z30" s="124"/>
       <c r="AA30" s="66"/>
       <c r="AB30" s="66"/>
       <c r="AC30" s="66"/>
       <c r="AD30" s="67"/>
-      <c r="AE30" s="83"/>
+      <c r="AE30" s="84"/>
       <c r="AF30" s="66"/>
       <c r="AG30" s="66"/>
       <c r="AH30" s="66"/>
@@ -21047,18 +21086,18 @@
       <c r="AQ30" s="66"/>
       <c r="AR30" s="66"/>
       <c r="AS30" s="67"/>
-      <c r="AT30" s="83"/>
+      <c r="AT30" s="84"/>
       <c r="AU30" s="66"/>
       <c r="AV30" s="66"/>
       <c r="AW30" s="66"/>
       <c r="AX30" s="67"/>
     </row>
     <row r="31" spans="3:50" ht="15" customHeight="1">
-      <c r="C31" s="107"/>
-      <c r="D31" s="108"/>
-      <c r="E31" s="108"/>
-      <c r="F31" s="108"/>
-      <c r="G31" s="109"/>
+      <c r="C31" s="108"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="110"/>
       <c r="H31" s="73"/>
       <c r="I31" s="62"/>
       <c r="J31" s="62"/>
@@ -21104,11 +21143,11 @@
       <c r="AX31" s="63"/>
     </row>
     <row r="32" spans="3:50" ht="15" customHeight="1">
-      <c r="C32" s="110"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="111"/>
-      <c r="F32" s="111"/>
-      <c r="G32" s="112"/>
+      <c r="C32" s="111"/>
+      <c r="D32" s="112"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="112"/>
+      <c r="G32" s="113"/>
       <c r="H32" s="74"/>
       <c r="I32" s="37"/>
       <c r="J32" s="37"/>
@@ -21154,28 +21193,28 @@
       <c r="AX32" s="38"/>
     </row>
     <row r="33" spans="3:50" ht="15" customHeight="1">
-      <c r="C33" s="103" t="s">
+      <c r="C33" s="104" t="s">
         <v>158</v>
       </c>
-      <c r="D33" s="105"/>
-      <c r="E33" s="105"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="106"/>
-      <c r="H33" s="83" t="s">
+      <c r="D33" s="106"/>
+      <c r="E33" s="106"/>
+      <c r="F33" s="106"/>
+      <c r="G33" s="107"/>
+      <c r="H33" s="84" t="s">
         <v>46</v>
       </c>
       <c r="I33" s="66"/>
       <c r="J33" s="66"/>
       <c r="K33" s="66"/>
       <c r="L33" s="67"/>
-      <c r="M33" s="179" t="s">
+      <c r="M33" s="185" t="s">
         <v>87</v>
       </c>
       <c r="N33" s="66"/>
       <c r="O33" s="66"/>
       <c r="P33" s="66"/>
       <c r="Q33" s="67"/>
-      <c r="R33" s="180" t="s">
+      <c r="R33" s="186" t="s">
         <v>91</v>
       </c>
       <c r="S33" s="66"/>
@@ -21185,42 +21224,42 @@
       <c r="W33" s="66"/>
       <c r="X33" s="66"/>
       <c r="Y33" s="67"/>
-      <c r="Z33" s="103" t="s">
+      <c r="Z33" s="104" t="s">
         <v>44</v>
       </c>
       <c r="AA33" s="66"/>
       <c r="AB33" s="66"/>
       <c r="AC33" s="66"/>
       <c r="AD33" s="67"/>
-      <c r="AE33" s="212" t="s">
+      <c r="AE33" s="190" t="s">
         <v>92</v>
       </c>
-      <c r="AF33" s="201"/>
-      <c r="AG33" s="201"/>
-      <c r="AH33" s="201"/>
-      <c r="AI33" s="201"/>
-      <c r="AJ33" s="201"/>
-      <c r="AK33" s="201"/>
-      <c r="AL33" s="201"/>
-      <c r="AM33" s="201"/>
-      <c r="AN33" s="201"/>
-      <c r="AO33" s="201"/>
-      <c r="AP33" s="201"/>
-      <c r="AQ33" s="201"/>
-      <c r="AR33" s="201"/>
-      <c r="AS33" s="202"/>
-      <c r="AT33" s="83"/>
+      <c r="AF33" s="180"/>
+      <c r="AG33" s="180"/>
+      <c r="AH33" s="180"/>
+      <c r="AI33" s="180"/>
+      <c r="AJ33" s="180"/>
+      <c r="AK33" s="180"/>
+      <c r="AL33" s="180"/>
+      <c r="AM33" s="180"/>
+      <c r="AN33" s="180"/>
+      <c r="AO33" s="180"/>
+      <c r="AP33" s="180"/>
+      <c r="AQ33" s="180"/>
+      <c r="AR33" s="180"/>
+      <c r="AS33" s="181"/>
+      <c r="AT33" s="84"/>
       <c r="AU33" s="66"/>
       <c r="AV33" s="66"/>
       <c r="AW33" s="66"/>
       <c r="AX33" s="67"/>
     </row>
     <row r="34" spans="3:50" ht="15" customHeight="1">
-      <c r="C34" s="107"/>
-      <c r="D34" s="108"/>
-      <c r="E34" s="108"/>
-      <c r="F34" s="108"/>
-      <c r="G34" s="109"/>
+      <c r="C34" s="108"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="109"/>
+      <c r="F34" s="109"/>
+      <c r="G34" s="110"/>
       <c r="H34" s="73"/>
       <c r="I34" s="62"/>
       <c r="J34" s="62"/>
@@ -21244,21 +21283,21 @@
       <c r="AB34" s="62"/>
       <c r="AC34" s="62"/>
       <c r="AD34" s="63"/>
-      <c r="AE34" s="213"/>
-      <c r="AF34" s="214"/>
-      <c r="AG34" s="214"/>
-      <c r="AH34" s="214"/>
-      <c r="AI34" s="214"/>
-      <c r="AJ34" s="214"/>
-      <c r="AK34" s="214"/>
-      <c r="AL34" s="214"/>
-      <c r="AM34" s="214"/>
-      <c r="AN34" s="214"/>
-      <c r="AO34" s="214"/>
-      <c r="AP34" s="214"/>
-      <c r="AQ34" s="214"/>
-      <c r="AR34" s="214"/>
-      <c r="AS34" s="215"/>
+      <c r="AE34" s="191"/>
+      <c r="AF34" s="192"/>
+      <c r="AG34" s="192"/>
+      <c r="AH34" s="192"/>
+      <c r="AI34" s="192"/>
+      <c r="AJ34" s="192"/>
+      <c r="AK34" s="192"/>
+      <c r="AL34" s="192"/>
+      <c r="AM34" s="192"/>
+      <c r="AN34" s="192"/>
+      <c r="AO34" s="192"/>
+      <c r="AP34" s="192"/>
+      <c r="AQ34" s="192"/>
+      <c r="AR34" s="192"/>
+      <c r="AS34" s="193"/>
       <c r="AT34" s="73"/>
       <c r="AU34" s="62"/>
       <c r="AV34" s="62"/>
@@ -21266,11 +21305,11 @@
       <c r="AX34" s="63"/>
     </row>
     <row r="35" spans="3:50" ht="15" customHeight="1">
-      <c r="C35" s="107"/>
-      <c r="D35" s="108"/>
-      <c r="E35" s="108"/>
-      <c r="F35" s="108"/>
-      <c r="G35" s="109"/>
+      <c r="C35" s="108"/>
+      <c r="D35" s="109"/>
+      <c r="E35" s="109"/>
+      <c r="F35" s="109"/>
+      <c r="G35" s="110"/>
       <c r="H35" s="73"/>
       <c r="I35" s="62"/>
       <c r="J35" s="62"/>
@@ -21294,21 +21333,21 @@
       <c r="AB35" s="37"/>
       <c r="AC35" s="37"/>
       <c r="AD35" s="38"/>
-      <c r="AE35" s="213"/>
-      <c r="AF35" s="214"/>
-      <c r="AG35" s="214"/>
-      <c r="AH35" s="214"/>
-      <c r="AI35" s="214"/>
-      <c r="AJ35" s="214"/>
-      <c r="AK35" s="214"/>
-      <c r="AL35" s="214"/>
-      <c r="AM35" s="214"/>
-      <c r="AN35" s="214"/>
-      <c r="AO35" s="214"/>
-      <c r="AP35" s="214"/>
-      <c r="AQ35" s="214"/>
-      <c r="AR35" s="214"/>
-      <c r="AS35" s="215"/>
+      <c r="AE35" s="191"/>
+      <c r="AF35" s="192"/>
+      <c r="AG35" s="192"/>
+      <c r="AH35" s="192"/>
+      <c r="AI35" s="192"/>
+      <c r="AJ35" s="192"/>
+      <c r="AK35" s="192"/>
+      <c r="AL35" s="192"/>
+      <c r="AM35" s="192"/>
+      <c r="AN35" s="192"/>
+      <c r="AO35" s="192"/>
+      <c r="AP35" s="192"/>
+      <c r="AQ35" s="192"/>
+      <c r="AR35" s="192"/>
+      <c r="AS35" s="193"/>
       <c r="AT35" s="73"/>
       <c r="AU35" s="62"/>
       <c r="AV35" s="62"/>
@@ -21316,11 +21355,11 @@
       <c r="AX35" s="63"/>
     </row>
     <row r="36" spans="3:50" ht="15" customHeight="1">
-      <c r="C36" s="107"/>
-      <c r="D36" s="108"/>
-      <c r="E36" s="108"/>
-      <c r="F36" s="108"/>
-      <c r="G36" s="109"/>
+      <c r="C36" s="108"/>
+      <c r="D36" s="109"/>
+      <c r="E36" s="109"/>
+      <c r="F36" s="109"/>
+      <c r="G36" s="110"/>
       <c r="H36" s="73"/>
       <c r="I36" s="62"/>
       <c r="J36" s="62"/>
@@ -21339,31 +21378,31 @@
       <c r="W36" s="62"/>
       <c r="X36" s="62"/>
       <c r="Y36" s="63"/>
-      <c r="Z36" s="168" t="s">
+      <c r="Z36" s="169" t="s">
         <v>89</v>
       </c>
       <c r="AA36" s="66"/>
       <c r="AB36" s="66"/>
       <c r="AC36" s="66"/>
       <c r="AD36" s="67"/>
-      <c r="AE36" s="216" t="s">
+      <c r="AE36" s="194" t="s">
         <v>93</v>
       </c>
-      <c r="AF36" s="201"/>
-      <c r="AG36" s="201"/>
-      <c r="AH36" s="201"/>
-      <c r="AI36" s="201"/>
-      <c r="AJ36" s="201"/>
-      <c r="AK36" s="201"/>
-      <c r="AL36" s="201"/>
-      <c r="AM36" s="201"/>
-      <c r="AN36" s="201"/>
-      <c r="AO36" s="201"/>
-      <c r="AP36" s="201"/>
-      <c r="AQ36" s="201"/>
-      <c r="AR36" s="201"/>
-      <c r="AS36" s="202"/>
-      <c r="AT36" s="170" t="s">
+      <c r="AF36" s="180"/>
+      <c r="AG36" s="180"/>
+      <c r="AH36" s="180"/>
+      <c r="AI36" s="180"/>
+      <c r="AJ36" s="180"/>
+      <c r="AK36" s="180"/>
+      <c r="AL36" s="180"/>
+      <c r="AM36" s="180"/>
+      <c r="AN36" s="180"/>
+      <c r="AO36" s="180"/>
+      <c r="AP36" s="180"/>
+      <c r="AQ36" s="180"/>
+      <c r="AR36" s="180"/>
+      <c r="AS36" s="181"/>
+      <c r="AT36" s="171" t="s">
         <v>94</v>
       </c>
       <c r="AU36" s="66"/>
@@ -21372,11 +21411,11 @@
       <c r="AX36" s="67"/>
     </row>
     <row r="37" spans="3:50" ht="15" customHeight="1">
-      <c r="C37" s="107"/>
-      <c r="D37" s="108"/>
-      <c r="E37" s="108"/>
-      <c r="F37" s="108"/>
-      <c r="G37" s="109"/>
+      <c r="C37" s="108"/>
+      <c r="D37" s="109"/>
+      <c r="E37" s="109"/>
+      <c r="F37" s="109"/>
+      <c r="G37" s="110"/>
       <c r="H37" s="73"/>
       <c r="I37" s="62"/>
       <c r="J37" s="62"/>
@@ -21400,21 +21439,21 @@
       <c r="AB37" s="62"/>
       <c r="AC37" s="62"/>
       <c r="AD37" s="63"/>
-      <c r="AE37" s="213"/>
-      <c r="AF37" s="214"/>
-      <c r="AG37" s="214"/>
-      <c r="AH37" s="214"/>
-      <c r="AI37" s="214"/>
-      <c r="AJ37" s="214"/>
-      <c r="AK37" s="214"/>
-      <c r="AL37" s="214"/>
-      <c r="AM37" s="214"/>
-      <c r="AN37" s="214"/>
-      <c r="AO37" s="214"/>
-      <c r="AP37" s="214"/>
-      <c r="AQ37" s="214"/>
-      <c r="AR37" s="214"/>
-      <c r="AS37" s="215"/>
+      <c r="AE37" s="191"/>
+      <c r="AF37" s="192"/>
+      <c r="AG37" s="192"/>
+      <c r="AH37" s="192"/>
+      <c r="AI37" s="192"/>
+      <c r="AJ37" s="192"/>
+      <c r="AK37" s="192"/>
+      <c r="AL37" s="192"/>
+      <c r="AM37" s="192"/>
+      <c r="AN37" s="192"/>
+      <c r="AO37" s="192"/>
+      <c r="AP37" s="192"/>
+      <c r="AQ37" s="192"/>
+      <c r="AR37" s="192"/>
+      <c r="AS37" s="193"/>
       <c r="AT37" s="73"/>
       <c r="AU37" s="62"/>
       <c r="AV37" s="62"/>
@@ -21422,11 +21461,11 @@
       <c r="AX37" s="63"/>
     </row>
     <row r="38" spans="3:50" ht="15" customHeight="1">
-      <c r="C38" s="107"/>
-      <c r="D38" s="108"/>
-      <c r="E38" s="108"/>
-      <c r="F38" s="108"/>
-      <c r="G38" s="109"/>
+      <c r="C38" s="108"/>
+      <c r="D38" s="109"/>
+      <c r="E38" s="109"/>
+      <c r="F38" s="109"/>
+      <c r="G38" s="110"/>
       <c r="H38" s="73"/>
       <c r="I38" s="62"/>
       <c r="J38" s="62"/>
@@ -21450,21 +21489,21 @@
       <c r="AB38" s="37"/>
       <c r="AC38" s="37"/>
       <c r="AD38" s="38"/>
-      <c r="AE38" s="206"/>
-      <c r="AF38" s="207"/>
-      <c r="AG38" s="207"/>
-      <c r="AH38" s="207"/>
-      <c r="AI38" s="207"/>
-      <c r="AJ38" s="207"/>
-      <c r="AK38" s="207"/>
-      <c r="AL38" s="207"/>
-      <c r="AM38" s="207"/>
-      <c r="AN38" s="207"/>
-      <c r="AO38" s="207"/>
-      <c r="AP38" s="207"/>
-      <c r="AQ38" s="207"/>
-      <c r="AR38" s="207"/>
-      <c r="AS38" s="208"/>
+      <c r="AE38" s="182"/>
+      <c r="AF38" s="183"/>
+      <c r="AG38" s="183"/>
+      <c r="AH38" s="183"/>
+      <c r="AI38" s="183"/>
+      <c r="AJ38" s="183"/>
+      <c r="AK38" s="183"/>
+      <c r="AL38" s="183"/>
+      <c r="AM38" s="183"/>
+      <c r="AN38" s="183"/>
+      <c r="AO38" s="183"/>
+      <c r="AP38" s="183"/>
+      <c r="AQ38" s="183"/>
+      <c r="AR38" s="183"/>
+      <c r="AS38" s="184"/>
       <c r="AT38" s="73"/>
       <c r="AU38" s="62"/>
       <c r="AV38" s="62"/>
@@ -21472,11 +21511,11 @@
       <c r="AX38" s="63"/>
     </row>
     <row r="39" spans="3:50" ht="15" customHeight="1">
-      <c r="C39" s="107"/>
-      <c r="D39" s="108"/>
-      <c r="E39" s="108"/>
-      <c r="F39" s="108"/>
-      <c r="G39" s="109"/>
+      <c r="C39" s="108"/>
+      <c r="D39" s="109"/>
+      <c r="E39" s="109"/>
+      <c r="F39" s="109"/>
+      <c r="G39" s="110"/>
       <c r="H39" s="73"/>
       <c r="I39" s="62"/>
       <c r="J39" s="62"/>
@@ -21495,12 +21534,12 @@
       <c r="W39" s="62"/>
       <c r="X39" s="62"/>
       <c r="Y39" s="63"/>
-      <c r="Z39" s="123"/>
+      <c r="Z39" s="124"/>
       <c r="AA39" s="66"/>
       <c r="AB39" s="66"/>
       <c r="AC39" s="66"/>
       <c r="AD39" s="67"/>
-      <c r="AE39" s="83"/>
+      <c r="AE39" s="84"/>
       <c r="AF39" s="66"/>
       <c r="AG39" s="66"/>
       <c r="AH39" s="66"/>
@@ -21515,18 +21554,18 @@
       <c r="AQ39" s="66"/>
       <c r="AR39" s="66"/>
       <c r="AS39" s="67"/>
-      <c r="AT39" s="83"/>
+      <c r="AT39" s="84"/>
       <c r="AU39" s="66"/>
       <c r="AV39" s="66"/>
       <c r="AW39" s="66"/>
       <c r="AX39" s="67"/>
     </row>
     <row r="40" spans="3:50" ht="15" customHeight="1">
-      <c r="C40" s="107"/>
-      <c r="D40" s="108"/>
-      <c r="E40" s="108"/>
-      <c r="F40" s="108"/>
-      <c r="G40" s="109"/>
+      <c r="C40" s="108"/>
+      <c r="D40" s="109"/>
+      <c r="E40" s="109"/>
+      <c r="F40" s="109"/>
+      <c r="G40" s="110"/>
       <c r="H40" s="73"/>
       <c r="I40" s="62"/>
       <c r="J40" s="62"/>
@@ -21572,11 +21611,11 @@
       <c r="AX40" s="63"/>
     </row>
     <row r="41" spans="3:50" ht="15" customHeight="1">
-      <c r="C41" s="110"/>
-      <c r="D41" s="111"/>
-      <c r="E41" s="111"/>
-      <c r="F41" s="111"/>
-      <c r="G41" s="112"/>
+      <c r="C41" s="111"/>
+      <c r="D41" s="112"/>
+      <c r="E41" s="112"/>
+      <c r="F41" s="112"/>
+      <c r="G41" s="113"/>
       <c r="H41" s="74"/>
       <c r="I41" s="37"/>
       <c r="J41" s="37"/>
@@ -22662,7 +22701,7 @@
   <dimension ref="B1:AO997"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -22673,80 +22712,80 @@
     <row r="1" spans="2:41" ht="15" customHeight="1"/>
     <row r="2" spans="2:41" ht="15" customHeight="1" thickBot="1"/>
     <row r="3" spans="2:41" ht="15" customHeight="1">
-      <c r="B3" s="187" t="s">
+      <c r="B3" s="198" t="s">
         <v>171</v>
       </c>
-      <c r="C3" s="188"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="188"/>
-      <c r="F3" s="188"/>
-      <c r="G3" s="188"/>
-      <c r="H3" s="188"/>
-      <c r="I3" s="188"/>
-      <c r="J3" s="188"/>
-      <c r="K3" s="188"/>
-      <c r="L3" s="189"/>
-      <c r="Q3" s="187" t="s">
+      <c r="C3" s="199"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="199"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="199"/>
+      <c r="J3" s="199"/>
+      <c r="K3" s="199"/>
+      <c r="L3" s="200"/>
+      <c r="Q3" s="198" t="s">
         <v>173</v>
       </c>
-      <c r="R3" s="188"/>
-      <c r="S3" s="188"/>
-      <c r="T3" s="188"/>
-      <c r="U3" s="188"/>
-      <c r="V3" s="188"/>
-      <c r="W3" s="188"/>
-      <c r="X3" s="188"/>
-      <c r="Y3" s="188"/>
-      <c r="Z3" s="188"/>
-      <c r="AA3" s="189"/>
-      <c r="AE3" s="187" t="s">
+      <c r="R3" s="199"/>
+      <c r="S3" s="199"/>
+      <c r="T3" s="199"/>
+      <c r="U3" s="199"/>
+      <c r="V3" s="199"/>
+      <c r="W3" s="199"/>
+      <c r="X3" s="199"/>
+      <c r="Y3" s="199"/>
+      <c r="Z3" s="199"/>
+      <c r="AA3" s="200"/>
+      <c r="AE3" s="198" t="s">
         <v>174</v>
       </c>
-      <c r="AF3" s="193"/>
-      <c r="AG3" s="193"/>
-      <c r="AH3" s="193"/>
-      <c r="AI3" s="193"/>
-      <c r="AJ3" s="193"/>
-      <c r="AK3" s="193"/>
-      <c r="AL3" s="193"/>
-      <c r="AM3" s="193"/>
-      <c r="AN3" s="193"/>
-      <c r="AO3" s="194"/>
+      <c r="AF3" s="204"/>
+      <c r="AG3" s="204"/>
+      <c r="AH3" s="204"/>
+      <c r="AI3" s="204"/>
+      <c r="AJ3" s="204"/>
+      <c r="AK3" s="204"/>
+      <c r="AL3" s="204"/>
+      <c r="AM3" s="204"/>
+      <c r="AN3" s="204"/>
+      <c r="AO3" s="205"/>
     </row>
     <row r="4" spans="2:41" ht="15" customHeight="1" thickBot="1">
-      <c r="B4" s="190"/>
-      <c r="C4" s="191"/>
-      <c r="D4" s="191"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="191"/>
-      <c r="G4" s="191"/>
-      <c r="H4" s="191"/>
-      <c r="I4" s="191"/>
-      <c r="J4" s="191"/>
-      <c r="K4" s="191"/>
-      <c r="L4" s="192"/>
-      <c r="Q4" s="190"/>
-      <c r="R4" s="191"/>
-      <c r="S4" s="191"/>
-      <c r="T4" s="191"/>
-      <c r="U4" s="191"/>
-      <c r="V4" s="191"/>
-      <c r="W4" s="191"/>
-      <c r="X4" s="191"/>
-      <c r="Y4" s="191"/>
-      <c r="Z4" s="191"/>
-      <c r="AA4" s="192"/>
-      <c r="AE4" s="195"/>
-      <c r="AF4" s="196"/>
-      <c r="AG4" s="196"/>
-      <c r="AH4" s="196"/>
-      <c r="AI4" s="196"/>
-      <c r="AJ4" s="196"/>
-      <c r="AK4" s="196"/>
-      <c r="AL4" s="196"/>
-      <c r="AM4" s="196"/>
-      <c r="AN4" s="196"/>
-      <c r="AO4" s="197"/>
+      <c r="B4" s="201"/>
+      <c r="C4" s="202"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="202"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="202"/>
+      <c r="H4" s="202"/>
+      <c r="I4" s="202"/>
+      <c r="J4" s="202"/>
+      <c r="K4" s="202"/>
+      <c r="L4" s="203"/>
+      <c r="Q4" s="201"/>
+      <c r="R4" s="202"/>
+      <c r="S4" s="202"/>
+      <c r="T4" s="202"/>
+      <c r="U4" s="202"/>
+      <c r="V4" s="202"/>
+      <c r="W4" s="202"/>
+      <c r="X4" s="202"/>
+      <c r="Y4" s="202"/>
+      <c r="Z4" s="202"/>
+      <c r="AA4" s="203"/>
+      <c r="AE4" s="206"/>
+      <c r="AF4" s="207"/>
+      <c r="AG4" s="207"/>
+      <c r="AH4" s="207"/>
+      <c r="AI4" s="207"/>
+      <c r="AJ4" s="207"/>
+      <c r="AK4" s="207"/>
+      <c r="AL4" s="207"/>
+      <c r="AM4" s="207"/>
+      <c r="AN4" s="207"/>
+      <c r="AO4" s="208"/>
     </row>
     <row r="5" spans="2:41" ht="23.25" customHeight="1" thickBot="1">
       <c r="B5" s="27" t="s">
@@ -22755,11 +22794,11 @@
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
-      <c r="J5" s="184" t="s">
+      <c r="J5" s="195" t="s">
         <v>162</v>
       </c>
-      <c r="K5" s="185"/>
-      <c r="L5" s="186"/>
+      <c r="K5" s="196"/>
+      <c r="L5" s="197"/>
       <c r="Q5" s="31" t="s">
         <v>161</v>
       </c>
@@ -22770,26 +22809,22 @@
       <c r="V5" s="21"/>
       <c r="W5" s="21"/>
       <c r="X5" s="21"/>
-      <c r="Y5" s="184" t="s">
+      <c r="Y5" s="195" t="s">
         <v>172</v>
       </c>
-      <c r="Z5" s="185"/>
-      <c r="AA5" s="186"/>
+      <c r="Z5" s="196"/>
+      <c r="AA5" s="197"/>
       <c r="AE5" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="AF5" s="198"/>
-      <c r="AG5" s="198"/>
-      <c r="AH5" s="198"/>
-      <c r="AI5" s="199"/>
-      <c r="AJ5" s="199"/>
-      <c r="AK5" s="199"/>
-      <c r="AL5" s="199"/>
-      <c r="AM5" s="184" t="s">
+      <c r="AF5" s="28"/>
+      <c r="AG5" s="28"/>
+      <c r="AH5" s="28"/>
+      <c r="AM5" s="195" t="s">
         <v>172</v>
       </c>
-      <c r="AN5" s="185"/>
-      <c r="AO5" s="186"/>
+      <c r="AN5" s="196"/>
+      <c r="AO5" s="197"/>
     </row>
     <row r="6" spans="2:41" ht="23.25" customHeight="1" thickBot="1">
       <c r="B6" s="27" t="s">
@@ -22803,20 +22838,16 @@
       <c r="Q6" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="R6" s="198"/>
-      <c r="S6" s="198"/>
-      <c r="T6" s="198"/>
-      <c r="U6" s="199"/>
-      <c r="V6" s="199"/>
-      <c r="W6" s="199"/>
-      <c r="X6" s="199"/>
-      <c r="Y6" s="184" t="s">
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="Y6" s="195" t="s">
         <v>162</v>
       </c>
-      <c r="Z6" s="185"/>
-      <c r="AA6" s="186"/>
+      <c r="Z6" s="196"/>
+      <c r="AA6" s="197"/>
       <c r="AE6" s="29" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
       <c r="AF6" s="30"/>
       <c r="AG6" s="30"/>
@@ -22825,9 +22856,9 @@
       <c r="AJ6" s="25"/>
       <c r="AK6" s="25"/>
       <c r="AL6" s="25"/>
-      <c r="AM6" s="184"/>
-      <c r="AN6" s="185"/>
-      <c r="AO6" s="186"/>
+      <c r="AM6" s="195"/>
+      <c r="AN6" s="196"/>
+      <c r="AO6" s="197"/>
     </row>
     <row r="7" spans="2:41" ht="23.25" customHeight="1">
       <c r="B7" s="27" t="s">
@@ -22841,15 +22872,10 @@
       <c r="Q7" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="R7" s="198"/>
-      <c r="S7" s="198"/>
-      <c r="T7" s="198"/>
-      <c r="U7" s="199"/>
-      <c r="V7" s="199"/>
-      <c r="W7" s="199"/>
-      <c r="X7" s="199"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
       <c r="Y7" s="22"/>
-      <c r="Z7" s="199"/>
       <c r="AA7" s="23"/>
       <c r="AE7" s="21"/>
       <c r="AF7" s="21"/>
@@ -22874,15 +22900,10 @@
       <c r="Q8" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="R8" s="198"/>
-      <c r="S8" s="198"/>
-      <c r="T8" s="198"/>
-      <c r="U8" s="199"/>
-      <c r="V8" s="199"/>
-      <c r="W8" s="199"/>
-      <c r="X8" s="199"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
       <c r="Y8" s="22"/>
-      <c r="Z8" s="199"/>
       <c r="AA8" s="23"/>
     </row>
     <row r="9" spans="2:41" ht="23.25" customHeight="1">
@@ -22897,15 +22918,10 @@
       <c r="Q9" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="R9" s="198"/>
-      <c r="S9" s="198"/>
-      <c r="T9" s="198"/>
-      <c r="U9" s="199"/>
-      <c r="V9" s="199"/>
-      <c r="W9" s="199"/>
-      <c r="X9" s="199"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
       <c r="Y9" s="22"/>
-      <c r="Z9" s="199"/>
       <c r="AA9" s="23"/>
     </row>
     <row r="10" spans="2:41" ht="23.25" customHeight="1">
@@ -22920,15 +22936,10 @@
       <c r="Q10" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="R10" s="198"/>
-      <c r="S10" s="198"/>
-      <c r="T10" s="198"/>
-      <c r="U10" s="199"/>
-      <c r="V10" s="199"/>
-      <c r="W10" s="199"/>
-      <c r="X10" s="199"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
       <c r="Y10" s="22"/>
-      <c r="Z10" s="199"/>
       <c r="AA10" s="23"/>
     </row>
     <row r="11" spans="2:41" ht="23.25" customHeight="1">
@@ -22943,15 +22954,10 @@
       <c r="Q11" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="R11" s="198"/>
-      <c r="S11" s="198"/>
-      <c r="T11" s="198"/>
-      <c r="U11" s="199"/>
-      <c r="V11" s="199"/>
-      <c r="W11" s="199"/>
-      <c r="X11" s="199"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
       <c r="Y11" s="22"/>
-      <c r="Z11" s="199"/>
       <c r="AA11" s="23"/>
     </row>
     <row r="12" spans="2:41" ht="23.25" customHeight="1">
@@ -22966,15 +22972,10 @@
       <c r="Q12" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="R12" s="198"/>
-      <c r="S12" s="198"/>
-      <c r="T12" s="198"/>
-      <c r="U12" s="199"/>
-      <c r="V12" s="199"/>
-      <c r="W12" s="199"/>
-      <c r="X12" s="199"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
       <c r="Y12" s="22"/>
-      <c r="Z12" s="199"/>
       <c r="AA12" s="23"/>
     </row>
     <row r="13" spans="2:41" ht="23.25" customHeight="1" thickBot="1">
